--- a/scripts/ethPrice.xlsx
+++ b/scripts/ethPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guzziplus/ThesisPro/mai-contracts/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EB679-B7D0-884A-851D-A770AEDF4611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E189AC37-A840-E74D-AF72-C5D66E3E5914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{F9D9460E-5B5D-3B42-98FA-30F273E19C44}"/>
   </bookViews>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498580F-3A01-E345-B42F-331B6A57D749}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scripts/ethPrice.xlsx
+++ b/scripts/ethPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guzziplus/ThesisPro/mai-contracts/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E189AC37-A840-E74D-AF72-C5D66E3E5914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64302CB9-95C8-2A4B-9CB7-42E9763DDEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{F9D9460E-5B5D-3B42-98FA-30F273E19C44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F9D9460E-5B5D-3B42-98FA-30F273E19C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,6 +50,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -72,11 +95,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,1389 +418,6398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498580F-3A01-E345-B42F-331B6A57D749}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>370.00400000000002</v>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>293.35299700000002</v>
       </c>
       <c r="C1" s="1">
         <v>370.00400000000002</v>
       </c>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>381.50580000000002</v>
+      <c r="F1" s="7">
+        <v>42917</v>
+      </c>
+      <c r="G1" s="3">
+        <v>293.35299700000002</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>275.12298600000003</v>
       </c>
       <c r="C2" s="1">
         <v>381.50580000000002</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>378.45389</v>
+      <c r="F2" s="7">
+        <v>42918</v>
+      </c>
+      <c r="G2" s="3">
+        <v>275.12298600000003</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>288.41400099999998</v>
       </c>
       <c r="C3" s="1">
         <v>378.45389</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>415.89969000000002</v>
+      <c r="F3" s="7">
+        <v>42919</v>
+      </c>
+      <c r="G3" s="3">
+        <v>288.41400099999998</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>282.19101000000001</v>
       </c>
       <c r="C4" s="1">
         <v>415.89969000000002</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>384.35251</v>
+      <c r="F4" s="7">
+        <v>42920</v>
+      </c>
+      <c r="G4" s="3">
+        <v>282.19101000000001</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>273.09899899999999</v>
       </c>
       <c r="C5" s="1">
         <v>384.35251</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>378.83371</v>
+      <c r="F5" s="7">
+        <v>42921</v>
+      </c>
+      <c r="G5" s="3">
+        <v>273.09899899999999</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>268.858002</v>
       </c>
       <c r="C6" s="1">
         <v>378.83371</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>394.27301</v>
+      <c r="F6" s="7">
+        <v>42922</v>
+      </c>
+      <c r="G6" s="3">
+        <v>268.858002</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>270.35000600000001</v>
       </c>
       <c r="C7" s="1">
         <v>394.27301</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>393.64278999999999</v>
+      <c r="F7" s="7">
+        <v>42923</v>
+      </c>
+      <c r="G7" s="3">
+        <v>270.35000600000001</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>245.88999899999999</v>
       </c>
       <c r="C8" s="1">
         <v>393.64278999999999</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>383.48831000000001</v>
+      <c r="F8" s="7">
+        <v>42924</v>
+      </c>
+      <c r="G8" s="3">
+        <v>245.88999899999999</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>251.82200599999999</v>
       </c>
       <c r="C9" s="1">
         <v>383.48831000000001</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>445.52359000000001</v>
+      <c r="F9" s="7">
+        <v>42925</v>
+      </c>
+      <c r="G9" s="3">
+        <v>251.82200599999999</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>243.01100199999999</v>
       </c>
       <c r="C10" s="1">
         <v>445.52359000000001</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>449.07199000000003</v>
+      <c r="F10" s="7">
+        <v>42926</v>
+      </c>
+      <c r="G10" s="3">
+        <v>243.01100199999999</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>211.52499399999999</v>
       </c>
       <c r="C11" s="1">
         <v>449.07199000000003</v>
       </c>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>486.70348999999999</v>
+      <c r="F11" s="7">
+        <v>42927</v>
+      </c>
+      <c r="G11" s="3">
+        <v>211.52499399999999</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>197.151993</v>
       </c>
       <c r="C12" s="1">
         <v>486.70348999999999</v>
       </c>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>523.60491999999999</v>
+      <c r="F12" s="7">
+        <v>42928</v>
+      </c>
+      <c r="G12" s="3">
+        <v>197.151993</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>231.81199599999999</v>
       </c>
       <c r="C13" s="1">
         <v>523.60491999999999</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>520.28301999999996</v>
+      <c r="F13" s="7">
+        <v>42929</v>
+      </c>
+      <c r="G13" s="3">
+        <v>231.81199599999999</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>209.52900700000001</v>
       </c>
       <c r="C14" s="1">
         <v>520.28301999999996</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>543.9248</v>
+      <c r="F14" s="7">
+        <v>42930</v>
+      </c>
+      <c r="G14" s="3">
+        <v>209.52900700000001</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>199.709</v>
       </c>
       <c r="C15" s="1">
         <v>543.9248</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>539.83752000000004</v>
+      <c r="F15" s="7">
+        <v>42931</v>
+      </c>
+      <c r="G15" s="3">
+        <v>199.709</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>169.574005</v>
       </c>
       <c r="C16" s="1">
         <v>539.83752000000004</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>559.99237000000005</v>
+      <c r="F16" s="7">
+        <v>42932</v>
+      </c>
+      <c r="G16" s="3">
+        <v>169.574005</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>159.99099699999999</v>
       </c>
       <c r="C17" s="1">
         <v>559.99237000000005</v>
       </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>565.64832000000001</v>
+      <c r="F17" s="7">
+        <v>42933</v>
+      </c>
+      <c r="G17" s="3">
+        <v>159.99099699999999</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>195.026993</v>
       </c>
       <c r="C18" s="1">
         <v>565.64832000000001</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>555.27551000000005</v>
+      <c r="F18" s="7">
+        <v>42934</v>
+      </c>
+      <c r="G18" s="3">
+        <v>195.026993</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>234.94099399999999</v>
       </c>
       <c r="C19" s="1">
         <v>555.27551000000005</v>
       </c>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>537.98186999999996</v>
+      <c r="F19" s="7">
+        <v>42935</v>
+      </c>
+      <c r="G19" s="3">
+        <v>234.94099399999999</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>205.421997</v>
       </c>
       <c r="C20" s="1">
         <v>537.98186999999996</v>
       </c>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>550.27050999999994</v>
+      <c r="F20" s="7">
+        <v>42936</v>
+      </c>
+      <c r="G20" s="3">
+        <v>205.421997</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>226.06100499999999</v>
       </c>
       <c r="C21" s="1">
         <v>550.27050999999994</v>
       </c>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>600.55109000000004</v>
+      <c r="F21" s="7">
+        <v>42937</v>
+      </c>
+      <c r="G21" s="3">
+        <v>226.06100499999999</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>217.86000100000001</v>
       </c>
       <c r="C22" s="1">
         <v>600.55109000000004</v>
       </c>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>610.46691999999996</v>
+      <c r="F22" s="7">
+        <v>42938</v>
+      </c>
+      <c r="G22" s="3">
+        <v>217.86000100000001</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>229.12300099999999</v>
       </c>
       <c r="C23" s="1">
         <v>610.46691999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>612.25951999999995</v>
+      <c r="F23" s="7">
+        <v>42939</v>
+      </c>
+      <c r="G23" s="3">
+        <v>229.12300099999999</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>226.28500399999999</v>
       </c>
       <c r="C24" s="1">
         <v>612.25951999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>689.59857</v>
+      <c r="F24" s="7">
+        <v>42940</v>
+      </c>
+      <c r="G24" s="3">
+        <v>226.28500399999999</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>224.37300099999999</v>
       </c>
       <c r="C25" s="1">
         <v>689.59857</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>696.65790000000004</v>
+      <c r="F25" s="7">
+        <v>42941</v>
+      </c>
+      <c r="G25" s="3">
+        <v>224.37300099999999</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>207.08599899999999</v>
       </c>
       <c r="C26" s="1">
         <v>696.65790000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>719.87958000000003</v>
+      <c r="F26" s="7">
+        <v>42942</v>
+      </c>
+      <c r="G26" s="3">
+        <v>207.08599899999999</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>204.85600299999999</v>
       </c>
       <c r="C27" s="1">
         <v>719.87958000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>681.45862</v>
+      <c r="F27" s="7">
+        <v>42943</v>
+      </c>
+      <c r="G27" s="3">
+        <v>204.85600299999999</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>204.324997</v>
       </c>
       <c r="C28" s="1">
         <v>681.45862</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>726.99292000000003</v>
+      <c r="F28" s="7">
+        <v>42944</v>
+      </c>
+      <c r="G28" s="3">
+        <v>204.324997</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>193.341003</v>
       </c>
       <c r="C29" s="1">
         <v>726.99292000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>699.12072999999998</v>
+      <c r="F29" s="7">
+        <v>42945</v>
+      </c>
+      <c r="G29" s="3">
+        <v>193.341003</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>206.73599200000001</v>
       </c>
       <c r="C30" s="1">
         <v>699.12072999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>750.14739999999995</v>
+      <c r="F30" s="7">
+        <v>42946</v>
+      </c>
+      <c r="G30" s="3">
+        <v>206.73599200000001</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>197.404999</v>
       </c>
       <c r="C31" s="1">
         <v>750.14739999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>814.50562000000002</v>
+      <c r="F31" s="7">
+        <v>42947</v>
+      </c>
+      <c r="G31" s="3">
+        <v>197.404999</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>204.68800400000001</v>
       </c>
       <c r="C32" s="1">
         <v>814.50562000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>848.48071000000004</v>
+      <c r="F32" s="7">
+        <v>42948</v>
+      </c>
+      <c r="G32" s="3">
+        <v>204.68800400000001</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>227.00599700000001</v>
       </c>
       <c r="C33" s="1">
         <v>848.48071000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>864.06952000000001</v>
+      <c r="F33" s="7">
+        <v>42949</v>
+      </c>
+      <c r="G33" s="3">
+        <v>227.00599700000001</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>220.179993</v>
       </c>
       <c r="C34" s="1">
         <v>864.06952000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>853.92291</v>
+      <c r="F34" s="7">
+        <v>42950</v>
+      </c>
+      <c r="G34" s="3">
+        <v>220.179993</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>225.307999</v>
       </c>
       <c r="C35" s="1">
         <v>853.92291</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>854.79510000000005</v>
+      <c r="F35" s="7">
+        <v>42951</v>
+      </c>
+      <c r="G35" s="3">
+        <v>225.307999</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>222.85200499999999</v>
       </c>
       <c r="C36" s="1">
         <v>854.79510000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>869.12207000000001</v>
+      <c r="F36" s="7">
+        <v>42952</v>
+      </c>
+      <c r="G36" s="3">
+        <v>222.85200499999999</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>256.41900600000002</v>
       </c>
       <c r="C37" s="1">
         <v>869.12207000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>850.66449</v>
+      <c r="F37" s="7">
+        <v>42953</v>
+      </c>
+      <c r="G37" s="3">
+        <v>256.41900600000002</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>261.23700000000002</v>
       </c>
       <c r="C38" s="1">
         <v>850.66449</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>871.80547999999999</v>
+      <c r="F38" s="7">
+        <v>42954</v>
+      </c>
+      <c r="G38" s="3">
+        <v>261.23700000000002</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>269.10000600000001</v>
       </c>
       <c r="C39" s="1">
         <v>871.80547999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>867.41729999999995</v>
+      <c r="F39" s="7">
+        <v>42955</v>
+      </c>
+      <c r="G39" s="3">
+        <v>269.10000600000001</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>297.63198899999998</v>
       </c>
       <c r="C40" s="1">
         <v>867.41729999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>840.82457999999997</v>
+      <c r="F40" s="7">
+        <v>42956</v>
+      </c>
+      <c r="G40" s="3">
+        <v>297.63198899999998</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>296.96099900000002</v>
       </c>
       <c r="C41" s="1">
         <v>840.82457999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>832.83911000000001</v>
+      <c r="F41" s="7">
+        <v>42957</v>
+      </c>
+      <c r="G41" s="3">
+        <v>296.96099900000002</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>294.49499500000002</v>
       </c>
       <c r="C42" s="1">
         <v>832.83911000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>853.57079999999996</v>
+      <c r="F42" s="7">
+        <v>42958</v>
+      </c>
+      <c r="G42" s="3">
+        <v>294.49499500000002</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>308.709991</v>
       </c>
       <c r="C43" s="1">
         <v>853.57079999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>804.55840999999998</v>
+      <c r="F43" s="7">
+        <v>42959</v>
+      </c>
+      <c r="G43" s="3">
+        <v>308.709991</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>310.36599699999999</v>
       </c>
       <c r="C44" s="1">
         <v>804.55840999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>839.46880999999996</v>
+      <c r="F44" s="7">
+        <v>42960</v>
+      </c>
+      <c r="G44" s="3">
+        <v>310.36599699999999</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>298.03100599999999</v>
       </c>
       <c r="C45" s="1">
         <v>839.46880999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>884.67022999999995</v>
+      <c r="F45" s="7">
+        <v>42961</v>
+      </c>
+      <c r="G45" s="3">
+        <v>298.03100599999999</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>299.95199600000001</v>
       </c>
       <c r="C46" s="1">
         <v>884.67022999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>939.71929999999998</v>
+      <c r="F46" s="7">
+        <v>42962</v>
+      </c>
+      <c r="G46" s="3">
+        <v>299.95199600000001</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>289.81900000000002</v>
       </c>
       <c r="C47" s="1">
         <v>939.71929999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>914.42853000000002</v>
+      <c r="F47" s="7">
+        <v>42963</v>
+      </c>
+      <c r="G47" s="3">
+        <v>289.81900000000002</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>302.80499300000002</v>
       </c>
       <c r="C48" s="1">
         <v>914.42853000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>975.0249</v>
+      <c r="F48" s="7">
+        <v>42964</v>
+      </c>
+      <c r="G48" s="3">
+        <v>302.80499300000002</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>301.69699100000003</v>
       </c>
       <c r="C49" s="1">
         <v>975.0249</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>937.93340999999998</v>
+      <c r="F49" s="7">
+        <v>42965</v>
+      </c>
+      <c r="G49" s="3">
+        <v>301.69699100000003</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>296.18099999999998</v>
       </c>
       <c r="C50" s="1">
         <v>937.93340999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>928.43688999999995</v>
+      <c r="F50" s="7">
+        <v>42966</v>
+      </c>
+      <c r="G50" s="3">
+        <v>296.18099999999998</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>296.64401199999998</v>
       </c>
       <c r="C51" s="1">
         <v>928.43688999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>920.57928000000004</v>
+      <c r="F51" s="7">
+        <v>42967</v>
+      </c>
+      <c r="G51" s="3">
+        <v>296.64401199999998</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>300.47601300000002</v>
       </c>
       <c r="C52" s="1">
         <v>920.57928000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>840.34460000000001</v>
+      <c r="F52" s="7">
+        <v>42968</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300.47601300000002</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>321.05499300000002</v>
       </c>
       <c r="C53" s="1">
         <v>840.34460000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>865.34869000000003</v>
+      <c r="F53" s="7">
+        <v>42969</v>
+      </c>
+      <c r="G53" s="3">
+        <v>321.05499300000002</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>315.26599099999999</v>
       </c>
       <c r="C54" s="1">
         <v>865.34869000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>810.99341000000004</v>
+      <c r="F54" s="7">
+        <v>42970</v>
+      </c>
+      <c r="G54" s="3">
+        <v>315.26599099999999</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>317.44799799999998</v>
       </c>
       <c r="C55" s="1">
         <v>810.99341000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>850.99419999999998</v>
+      <c r="F55" s="7">
+        <v>42971</v>
+      </c>
+      <c r="G55" s="3">
+        <v>317.44799799999998</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>326.10900900000001</v>
       </c>
       <c r="C56" s="1">
         <v>850.99419999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>877.52179000000001</v>
+      <c r="F56" s="7">
+        <v>42972</v>
+      </c>
+      <c r="G56" s="3">
+        <v>326.10900900000001</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>331.98998999999998</v>
       </c>
       <c r="C57" s="1">
         <v>877.52179000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>813.94768999999997</v>
+      <c r="F57" s="7">
+        <v>42973</v>
+      </c>
+      <c r="G57" s="3">
+        <v>331.98998999999998</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>334.35699499999998</v>
       </c>
       <c r="C58" s="1">
         <v>813.94768999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>749.84978999999998</v>
+      <c r="F58" s="7">
+        <v>42974</v>
+      </c>
+      <c r="G58" s="3">
+        <v>334.35699499999998</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>350.04299900000001</v>
       </c>
       <c r="C59" s="1">
         <v>749.84978999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>785.12372000000005</v>
+      <c r="F59" s="7">
+        <v>42975</v>
+      </c>
+      <c r="G59" s="3">
+        <v>350.04299900000001</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>347.96499599999999</v>
       </c>
       <c r="C60" s="1">
         <v>785.12372000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>691.47338999999999</v>
+      <c r="F60" s="7">
+        <v>42976</v>
+      </c>
+      <c r="G60" s="3">
+        <v>347.96499599999999</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>369.47299199999998</v>
       </c>
       <c r="C61" s="1">
         <v>691.47338999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>824.86297999999999</v>
+      <c r="F61" s="7">
+        <v>42977</v>
+      </c>
+      <c r="G61" s="3">
+        <v>369.47299199999998</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>378.44101000000001</v>
       </c>
       <c r="C62" s="1">
         <v>824.86297999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>970.69788000000005</v>
+      <c r="F62" s="7">
+        <v>42978</v>
+      </c>
+      <c r="G62" s="3">
+        <v>378.44101000000001</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>383.46701000000002</v>
       </c>
       <c r="C63" s="1">
         <v>970.69788000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>916.64977999999996</v>
+      <c r="F63" s="7">
+        <v>42979</v>
+      </c>
+      <c r="G63" s="3">
+        <v>383.46701000000002</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>387.824005</v>
       </c>
       <c r="C64" s="1">
         <v>916.64977999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>1023.79071</v>
+      <c r="F64" s="7">
+        <v>42980</v>
+      </c>
+      <c r="G64" s="3">
+        <v>387.824005</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>350.22900399999997</v>
       </c>
       <c r="C65" s="1">
         <v>1023.79071</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>1108.11365</v>
+      <c r="F65" s="7">
+        <v>42981</v>
+      </c>
+      <c r="G65" s="3">
+        <v>350.22900399999997</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>347.13299599999999</v>
       </c>
       <c r="C66" s="1">
         <v>1108.11365</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>1061.5815399999999</v>
+      <c r="F66" s="7">
+        <v>42982</v>
+      </c>
+      <c r="G66" s="3">
+        <v>347.13299599999999</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>297.56698599999999</v>
       </c>
       <c r="C67" s="1">
         <v>1061.5815399999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>1168.30945</v>
+      <c r="F67" s="7">
+        <v>42983</v>
+      </c>
+      <c r="G67" s="3">
+        <v>297.56698599999999</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>313.80200200000002</v>
       </c>
       <c r="C68" s="1">
         <v>1168.30945</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>1228.4427499999999</v>
+      <c r="F68" s="7">
+        <v>42984</v>
+      </c>
+      <c r="G68" s="3">
+        <v>313.80200200000002</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>333.51901199999998</v>
       </c>
       <c r="C69" s="1">
         <v>1228.4427499999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>1107.6357399999999</v>
+      <c r="F69" s="7">
+        <v>42985</v>
+      </c>
+      <c r="G69" s="3">
+        <v>333.51901199999998</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>329.635986</v>
       </c>
       <c r="C70" s="1">
         <v>1107.6357399999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>1048.6379400000001</v>
+      <c r="F70" s="7">
+        <v>42986</v>
+      </c>
+      <c r="G70" s="3">
+        <v>329.635986</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>296.16900600000002</v>
       </c>
       <c r="C71" s="1">
         <v>1048.6379400000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>1045.21252</v>
+      <c r="F71" s="7">
+        <v>42987</v>
+      </c>
+      <c r="G71" s="3">
+        <v>296.16900600000002</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>294.06399499999998</v>
       </c>
       <c r="C72" s="1">
         <v>1045.21252</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>1061.41833</v>
+      <c r="F72" s="7">
+        <v>42988</v>
+      </c>
+      <c r="G72" s="3">
+        <v>294.06399499999998</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>289.74499500000002</v>
       </c>
       <c r="C73" s="1">
         <v>1061.41833</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>984.46320000000003</v>
+      <c r="F73" s="7">
+        <v>42989</v>
+      </c>
+      <c r="G73" s="3">
+        <v>289.74499500000002</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>294.63000499999998</v>
       </c>
       <c r="C74" s="1">
         <v>984.46320000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>1001.34692</v>
+      <c r="F74" s="7">
+        <v>42990</v>
+      </c>
+      <c r="G74" s="3">
+        <v>294.63000499999998</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>291.12200899999999</v>
       </c>
       <c r="C75" s="1">
         <v>1001.34692</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>1051.39246</v>
+      <c r="F75" s="7">
+        <v>42991</v>
+      </c>
+      <c r="G75" s="3">
+        <v>291.12200899999999</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>276.58700599999997</v>
       </c>
       <c r="C76" s="1">
         <v>1051.39246</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>1150.7586699999999</v>
+      <c r="F76" s="7">
+        <v>42992</v>
+      </c>
+      <c r="G76" s="3">
+        <v>276.58700599999997</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>215.22099299999999</v>
       </c>
       <c r="C77" s="1">
         <v>1150.7586699999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>1039.99512</v>
+      <c r="F77" s="7">
+        <v>42993</v>
+      </c>
+      <c r="G77" s="3">
+        <v>215.22099299999999</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>250.86599699999999</v>
       </c>
       <c r="C78" s="1">
         <v>1039.99512</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>1017.71051</v>
+      <c r="F78" s="7">
+        <v>42994</v>
+      </c>
+      <c r="G78" s="3">
+        <v>250.86599699999999</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>245.84899899999999</v>
       </c>
       <c r="C79" s="1">
         <v>1017.71051</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>1024.7921100000001</v>
+      <c r="F79" s="7">
+        <v>42995</v>
+      </c>
+      <c r="G79" s="3">
+        <v>245.84899899999999</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>252.22700499999999</v>
       </c>
       <c r="C80" s="1">
         <v>1024.7921100000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>1064.74414</v>
+      <c r="F80" s="7">
+        <v>42996</v>
+      </c>
+      <c r="G80" s="3">
+        <v>252.22700499999999</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>293.65600599999999</v>
       </c>
       <c r="C81" s="1">
         <v>1064.74414</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>1277.58862</v>
+      <c r="F81" s="7">
+        <v>42997</v>
+      </c>
+      <c r="G81" s="3">
+        <v>293.65600599999999</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>282.01501500000001</v>
       </c>
       <c r="C82" s="1">
         <v>1277.58862</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>1358.80225</v>
+      <c r="F82" s="7">
+        <v>42998</v>
+      </c>
+      <c r="G82" s="3">
+        <v>282.01501500000001</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>283.26299999999998</v>
       </c>
       <c r="C83" s="1">
         <v>1358.80225</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>1384.44019</v>
+      <c r="F83" s="7">
+        <v>42999</v>
+      </c>
+      <c r="G83" s="3">
+        <v>283.26299999999998</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>258.114014</v>
       </c>
       <c r="C84" s="1">
         <v>1384.44019</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>1258.8481400000001</v>
+      <c r="F84" s="7">
+        <v>43000</v>
+      </c>
+      <c r="G84" s="3">
+        <v>258.114014</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>264.59899899999999</v>
       </c>
       <c r="C85" s="1">
         <v>1258.8481400000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>1136.8531499999999</v>
+      <c r="F85" s="7">
+        <v>43001</v>
+      </c>
+      <c r="G85" s="3">
+        <v>264.59899899999999</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>286.21398900000003</v>
       </c>
       <c r="C86" s="1">
         <v>1136.8531499999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>1248.2978499999999</v>
+      <c r="F86" s="7">
+        <v>43002</v>
+      </c>
+      <c r="G86" s="3">
+        <v>286.21398900000003</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>282.21798699999999</v>
       </c>
       <c r="C87" s="1">
         <v>1248.2978499999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>1286.79358</v>
+      <c r="F87" s="7">
+        <v>43003</v>
+      </c>
+      <c r="G87" s="3">
+        <v>282.21798699999999</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>292.34600799999998</v>
       </c>
       <c r="C88" s="1">
         <v>1286.79358</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>1133.52539</v>
+      <c r="F88" s="7">
+        <v>43004</v>
+      </c>
+      <c r="G88" s="3">
+        <v>292.34600799999998</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>287.01998900000001</v>
       </c>
       <c r="C89" s="1">
         <v>1133.52539</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>1115.3634</v>
+      <c r="F89" s="7">
+        <v>43005</v>
+      </c>
+      <c r="G89" s="3">
+        <v>287.01998900000001</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>306.47100799999998</v>
       </c>
       <c r="C90" s="1">
         <v>1115.3634</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>1004.38568</v>
+      <c r="F90" s="7">
+        <v>43006</v>
+      </c>
+      <c r="G90" s="3">
+        <v>306.47100799999998</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>299.11999500000002</v>
       </c>
       <c r="C91" s="1">
         <v>1004.38568</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>969.05280000000005</v>
+      <c r="F91" s="7">
+        <v>43007</v>
+      </c>
+      <c r="G91" s="3">
+        <v>299.11999500000002</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>291.47699</v>
       </c>
       <c r="C92" s="1">
         <v>969.05280000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>948.57470999999998</v>
+      <c r="F92" s="7">
+        <v>43008</v>
+      </c>
+      <c r="G92" s="3">
+        <v>291.47699</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>301.54699699999998</v>
       </c>
       <c r="C93" s="1">
         <v>948.57470999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>938.61541999999997</v>
+      <c r="F93" s="7">
+        <v>43009</v>
+      </c>
+      <c r="G93" s="3">
+        <v>301.54699699999998</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>302.48199499999998</v>
       </c>
       <c r="C94" s="1">
         <v>938.61541999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>861.68499999999995</v>
+      <c r="F94" s="7">
+        <v>43010</v>
+      </c>
+      <c r="G94" s="3">
+        <v>302.48199499999998</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>297.483002</v>
       </c>
       <c r="C95" s="1">
         <v>861.68499999999995</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>755.40941999999995</v>
+      <c r="F95" s="7">
+        <v>43011</v>
+      </c>
+      <c r="G95" s="3">
+        <v>297.483002</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>292.75399800000002</v>
       </c>
       <c r="C96" s="1">
         <v>755.40941999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>740.55811000000006</v>
+      <c r="F96" s="7">
+        <v>43012</v>
+      </c>
+      <c r="G96" s="3">
+        <v>292.75399800000002</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>292.77301</v>
       </c>
       <c r="C97" s="1">
         <v>740.55811000000006</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>701.51782000000003</v>
+      <c r="F97" s="7">
+        <v>43013</v>
+      </c>
+      <c r="G97" s="3">
+        <v>292.77301</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>295.15499899999998</v>
       </c>
       <c r="C98" s="1">
         <v>701.51782000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>740.94659000000001</v>
+      <c r="F98" s="7">
+        <v>43014</v>
+      </c>
+      <c r="G98" s="3">
+        <v>295.15499899999998</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>308.891998</v>
       </c>
       <c r="C99" s="1">
         <v>740.94659000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>719.35906999999997</v>
+      <c r="F99" s="7">
+        <v>43015</v>
+      </c>
+      <c r="G99" s="3">
+        <v>308.891998</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>311.05898999999999</v>
       </c>
       <c r="C100" s="1">
         <v>719.35906999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>740.03899999999999</v>
+      <c r="F100" s="7">
+        <v>43016</v>
+      </c>
+      <c r="G100" s="3">
+        <v>311.05898999999999</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>308.66699199999999</v>
       </c>
       <c r="C101" s="1">
         <v>740.03899999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>752.35107000000005</v>
+      <c r="F101" s="7">
+        <v>43017</v>
+      </c>
+      <c r="G101" s="3">
+        <v>308.66699199999999</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>297.60101300000002</v>
       </c>
       <c r="C102" s="1">
         <v>752.35107000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>722.26757999999995</v>
+      <c r="F102" s="7">
+        <v>43018</v>
+      </c>
+      <c r="G102" s="3">
+        <v>297.60101300000002</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>301.18099999999998</v>
       </c>
       <c r="C103" s="1">
         <v>722.26757999999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>691.15521000000001</v>
+      <c r="F103" s="7">
+        <v>43019</v>
+      </c>
+      <c r="G103" s="3">
+        <v>301.18099999999998</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>303.49798600000003</v>
       </c>
       <c r="C104" s="1">
         <v>691.15521000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>703.18200999999999</v>
+      <c r="F104" s="7">
+        <v>43020</v>
+      </c>
+      <c r="G104" s="3">
+        <v>303.49798600000003</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>304.07900999999998</v>
       </c>
       <c r="C105" s="1">
         <v>703.18200999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>675.29669000000001</v>
+      <c r="F105" s="7">
+        <v>43021</v>
+      </c>
+      <c r="G105" s="3">
+        <v>304.07900999999998</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>338.85199</v>
       </c>
       <c r="C106" s="1">
         <v>675.29669000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>789.29181000000005</v>
+      <c r="F106" s="7">
+        <v>43022</v>
+      </c>
+      <c r="G106" s="3">
+        <v>338.85199</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>339.52899200000002</v>
       </c>
       <c r="C107" s="1">
         <v>789.29181000000005</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>798.04327000000001</v>
+      <c r="F107" s="7">
+        <v>43023</v>
+      </c>
+      <c r="G107" s="3">
+        <v>339.52899200000002</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>336.71099900000002</v>
       </c>
       <c r="C108" s="1">
         <v>798.04327000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>818.23828000000003</v>
+      <c r="F108" s="7">
+        <v>43024</v>
+      </c>
+      <c r="G108" s="3">
+        <v>336.71099900000002</v>
+      </c>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>333.48400900000001</v>
       </c>
       <c r="C109" s="1">
         <v>818.23828000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>786.13300000000004</v>
+      <c r="F109" s="7">
+        <v>43025</v>
+      </c>
+      <c r="G109" s="3">
+        <v>333.48400900000001</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>316.94400000000002</v>
       </c>
       <c r="C110" s="1">
         <v>786.13300000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>713.14008000000001</v>
+      <c r="F110" s="7">
+        <v>43026</v>
+      </c>
+      <c r="G110" s="3">
+        <v>316.94400000000002</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>314.53799400000003</v>
       </c>
       <c r="C111" s="1">
         <v>713.14008000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>691.89648</v>
+      <c r="F111" s="7">
+        <v>43027</v>
+      </c>
+      <c r="G111" s="3">
+        <v>314.53799400000003</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>308.04599000000002</v>
       </c>
       <c r="C112" s="1">
         <v>691.89648</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>683.48461999999995</v>
+      <c r="F112" s="7">
+        <v>43028</v>
+      </c>
+      <c r="G112" s="3">
+        <v>308.04599000000002</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>303.57199100000003</v>
       </c>
       <c r="C113" s="1">
         <v>683.48461999999995</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>694.54633000000001</v>
+      <c r="F113" s="7">
+        <v>43029</v>
+      </c>
+      <c r="G113" s="3">
+        <v>303.57199100000003</v>
+      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>300.54901100000001</v>
       </c>
       <c r="C114" s="1">
         <v>694.54633000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>698.77319</v>
+      <c r="F114" s="7">
+        <v>43030</v>
+      </c>
+      <c r="G114" s="3">
+        <v>300.54901100000001</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>295.09600799999998</v>
       </c>
       <c r="C115" s="1">
         <v>698.77319</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>659.57677999999999</v>
+      <c r="F115" s="7">
+        <v>43031</v>
+      </c>
+      <c r="G115" s="3">
+        <v>295.09600799999998</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>287.11999500000002</v>
       </c>
       <c r="C116" s="1">
         <v>659.57677999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>511.15411</v>
+      <c r="F116" s="7">
+        <v>43032</v>
+      </c>
+      <c r="G116" s="3">
+        <v>287.11999500000002</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>298.43701199999998</v>
       </c>
       <c r="C117" s="1">
         <v>511.15411</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>437.01709</v>
+      <c r="F117" s="7">
+        <v>43033</v>
+      </c>
+      <c r="G117" s="3">
+        <v>298.43701199999998</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>298.02200299999998</v>
       </c>
       <c r="C118" s="1">
         <v>437.01709</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>474.78271000000001</v>
+      <c r="F118" s="7">
+        <v>43034</v>
+      </c>
+      <c r="G118" s="3">
+        <v>298.02200299999998</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>296.50799599999999</v>
       </c>
       <c r="C119" s="1">
         <v>474.78271000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>451.68099999999998</v>
+      <c r="F119" s="7">
+        <v>43035</v>
+      </c>
+      <c r="G119" s="3">
+        <v>296.50799599999999</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>297.915009</v>
       </c>
       <c r="C120" s="1">
         <v>451.68099999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>421.76150999999999</v>
+      <c r="F120" s="7">
+        <v>43036</v>
+      </c>
+      <c r="G120" s="3">
+        <v>297.915009</v>
+      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>296.381012</v>
       </c>
       <c r="C121" s="1">
         <v>421.76150999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>418.66289999999998</v>
+      <c r="F121" s="7">
+        <v>43037</v>
+      </c>
+      <c r="G121" s="3">
+        <v>296.381012</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>304.78201300000001</v>
       </c>
       <c r="C122" s="1">
         <v>418.66289999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>453.35861</v>
+      <c r="F122" s="7">
+        <v>43038</v>
+      </c>
+      <c r="G122" s="3">
+        <v>304.78201300000001</v>
+      </c>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>307.37799100000001</v>
       </c>
       <c r="C123" s="1">
         <v>453.35861</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>466.25448999999998</v>
+      <c r="F123" s="7">
+        <v>43039</v>
+      </c>
+      <c r="G123" s="3">
+        <v>307.37799100000001</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>305.76199300000002</v>
       </c>
       <c r="C124" s="1">
         <v>466.25448999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>461.75729000000001</v>
+      <c r="F124" s="7">
+        <v>43040</v>
+      </c>
+      <c r="G124" s="3">
+        <v>305.76199300000002</v>
+      </c>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>290.72500600000001</v>
       </c>
       <c r="C125" s="1">
         <v>461.75729000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>457.59811000000002</v>
+      <c r="F125" s="7">
+        <v>43041</v>
+      </c>
+      <c r="G125" s="3">
+        <v>290.72500600000001</v>
+      </c>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>288.49700899999999</v>
       </c>
       <c r="C126" s="1">
         <v>457.59811000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>461.72491000000002</v>
+      <c r="F126" s="7">
+        <v>43042</v>
+      </c>
+      <c r="G126" s="3">
+        <v>288.49700899999999</v>
+      </c>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>305.48098800000002</v>
       </c>
       <c r="C127" s="1">
         <v>461.72491000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>434.56851</v>
+      <c r="F127" s="7">
+        <v>43043</v>
+      </c>
+      <c r="G127" s="3">
+        <v>305.48098800000002</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>300.03698700000001</v>
       </c>
       <c r="C128" s="1">
         <v>434.56851</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>426.47780999999998</v>
+      <c r="F128" s="7">
+        <v>43044</v>
+      </c>
+      <c r="G128" s="3">
+        <v>300.03698700000001</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>296.42700200000002</v>
       </c>
       <c r="C129" s="1">
         <v>426.47780999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>465.81470000000002</v>
+      <c r="F129" s="7">
+        <v>43045</v>
+      </c>
+      <c r="G129" s="3">
+        <v>296.42700200000002</v>
+      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>298.567993</v>
       </c>
       <c r="C130" s="1">
         <v>465.81470000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>474.80779999999999</v>
+      <c r="F130" s="7">
+        <v>43046</v>
+      </c>
+      <c r="G130" s="3">
+        <v>298.567993</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>294.27099600000003</v>
       </c>
       <c r="C131" s="1">
         <v>474.80779999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>470.24898999999999</v>
+      <c r="F131" s="7">
+        <v>43047</v>
+      </c>
+      <c r="G131" s="3">
+        <v>294.27099600000003</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>308.64498900000001</v>
       </c>
       <c r="C132" s="1">
         <v>470.24898999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>464.34021000000001</v>
+      <c r="F132" s="7">
+        <v>43048</v>
+      </c>
+      <c r="G132" s="3">
+        <v>308.64498900000001</v>
+      </c>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>320.67099000000002</v>
       </c>
       <c r="C133" s="1">
         <v>464.34021000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>470.01378999999997</v>
+      <c r="F133" s="7">
+        <v>43049</v>
+      </c>
+      <c r="G133" s="3">
+        <v>320.67099000000002</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>298.58599900000002</v>
       </c>
       <c r="C134" s="1">
         <v>470.01378999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>411.14890000000003</v>
+      <c r="F134" s="7">
+        <v>43050</v>
+      </c>
+      <c r="G134" s="3">
+        <v>298.58599900000002</v>
+      </c>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>314.69000199999999</v>
       </c>
       <c r="C135" s="1">
         <v>411.14890000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>381.30160999999998</v>
+      <c r="F135" s="7">
+        <v>43051</v>
+      </c>
+      <c r="G135" s="3">
+        <v>314.69000199999999</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>307.02499399999999</v>
       </c>
       <c r="C136" s="1">
         <v>381.30160999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>360.32238999999998</v>
+      <c r="F136" s="7">
+        <v>43052</v>
+      </c>
+      <c r="G136" s="3">
+        <v>307.02499399999999</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>316.76299999999998</v>
       </c>
       <c r="C137" s="1">
         <v>360.32238999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>368.08199999999999</v>
+      <c r="F137" s="7">
+        <v>43053</v>
+      </c>
+      <c r="G137" s="3">
+        <v>316.76299999999998</v>
+      </c>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>337.96398900000003</v>
       </c>
       <c r="C138" s="1">
         <v>368.08199999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>354.64670000000001</v>
+      <c r="F138" s="7">
+        <v>43054</v>
+      </c>
+      <c r="G138" s="3">
+        <v>337.96398900000003</v>
+      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>333.442993</v>
       </c>
       <c r="C139" s="1">
         <v>354.64670000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>345.82501000000002</v>
+      <c r="F139" s="7">
+        <v>43055</v>
+      </c>
+      <c r="G139" s="3">
+        <v>333.442993</v>
+      </c>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>330.16699199999999</v>
       </c>
       <c r="C140" s="1">
         <v>345.82501000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>331.23090000000002</v>
+      <c r="F140" s="7">
+        <v>43056</v>
+      </c>
+      <c r="G140" s="3">
+        <v>330.16699199999999</v>
+      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>331.98001099999999</v>
       </c>
       <c r="C141" s="1">
         <v>331.23090000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>330.29770000000002</v>
+      <c r="F141" s="7">
+        <v>43057</v>
+      </c>
+      <c r="G141" s="3">
+        <v>331.98001099999999</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>347.40100100000001</v>
       </c>
       <c r="C142" s="1">
         <v>330.29770000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>330.77661000000001</v>
+      <c r="F142" s="7">
+        <v>43058</v>
+      </c>
+      <c r="G142" s="3">
+        <v>347.40100100000001</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>354.09399400000001</v>
       </c>
       <c r="C143" s="1">
         <v>330.77661000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>335.50760000000002</v>
+      <c r="F143" s="7">
+        <v>43059</v>
+      </c>
+      <c r="G143" s="3">
+        <v>354.09399400000001</v>
+      </c>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>367.442993</v>
       </c>
       <c r="C144" s="1">
         <v>335.50760000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>315.05068999999997</v>
+      <c r="F144" s="7">
+        <v>43060</v>
+      </c>
+      <c r="G144" s="3">
+        <v>367.442993</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>360.31201199999998</v>
       </c>
       <c r="C145" s="1">
         <v>315.05068999999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>306.97491000000002</v>
+      <c r="F145" s="7">
+        <v>43061</v>
+      </c>
+      <c r="G145" s="3">
+        <v>360.31201199999998</v>
+      </c>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>381.43899499999998</v>
       </c>
       <c r="C146" s="1">
         <v>306.97491000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>312.95589999999999</v>
+      <c r="F146" s="7">
+        <v>43062</v>
+      </c>
+      <c r="G146" s="3">
+        <v>381.43899499999998</v>
+      </c>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>412.50100700000002</v>
       </c>
       <c r="C147" s="1">
         <v>312.95589999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>296.6832</v>
+      <c r="F147" s="7">
+        <v>43063</v>
+      </c>
+      <c r="G147" s="3">
+        <v>412.50100700000002</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>475.675995</v>
       </c>
       <c r="C148" s="1">
         <v>296.6832</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>319.05649</v>
+      <c r="F148" s="7">
+        <v>43064</v>
+      </c>
+      <c r="G148" s="3">
+        <v>475.675995</v>
+      </c>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>465.97399899999999</v>
       </c>
       <c r="C149" s="1">
         <v>319.05649</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>307.54268999999999</v>
+      <c r="F149" s="7">
+        <v>43065</v>
+      </c>
+      <c r="G149" s="3">
+        <v>465.97399899999999</v>
+      </c>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>471.53100599999999</v>
       </c>
       <c r="C150" s="1">
         <v>307.54268999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>291.58920000000001</v>
+      <c r="F150" s="7">
+        <v>43066</v>
+      </c>
+      <c r="G150" s="3">
+        <v>471.53100599999999</v>
+      </c>
+      <c r="H150" s="6"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>480.51800500000002</v>
       </c>
       <c r="C151" s="1">
         <v>291.58920000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>298.27951000000002</v>
+      <c r="F151" s="7">
+        <v>43067</v>
+      </c>
+      <c r="G151" s="3">
+        <v>480.51800500000002</v>
+      </c>
+      <c r="H151" s="6"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>473.28100599999999</v>
       </c>
       <c r="C152" s="1">
         <v>298.27951000000002</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>295.98340000000002</v>
+      <c r="F152" s="7">
+        <v>43068</v>
+      </c>
+      <c r="G152" s="3">
+        <v>473.28100599999999</v>
+      </c>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>431.21499599999999</v>
       </c>
       <c r="C153" s="1">
         <v>295.98340000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>300.15359000000001</v>
+      <c r="F153" s="7">
+        <v>43069</v>
+      </c>
+      <c r="G153" s="3">
+        <v>431.21499599999999</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>445.20901500000002</v>
       </c>
       <c r="C154" s="1">
         <v>300.15359000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>303.26790999999997</v>
+      <c r="F154" s="7">
+        <v>43070</v>
+      </c>
+      <c r="G154" s="3">
+        <v>445.20901500000002</v>
+      </c>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>466.85101300000002</v>
       </c>
       <c r="C155" s="1">
         <v>303.26790999999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>285.93090999999998</v>
+      <c r="F155" s="7">
+        <v>43071</v>
+      </c>
+      <c r="G155" s="3">
+        <v>466.85101300000002</v>
+      </c>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>463.70498700000002</v>
       </c>
       <c r="C156" s="1">
         <v>285.93090999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>291.11331000000001</v>
+      <c r="F156" s="7">
+        <v>43072</v>
+      </c>
+      <c r="G156" s="3">
+        <v>463.70498700000002</v>
+      </c>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>466.05398600000001</v>
       </c>
       <c r="C157" s="1">
         <v>291.11331000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>303.86959999999999</v>
+      <c r="F157" s="7">
+        <v>43073</v>
+      </c>
+      <c r="G157" s="3">
+        <v>466.05398600000001</v>
+      </c>
+      <c r="H157" s="6"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>470.29400600000002</v>
       </c>
       <c r="C158" s="1">
         <v>303.86959999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>306.84021000000001</v>
+      <c r="F158" s="7">
+        <v>43074</v>
+      </c>
+      <c r="G158" s="3">
+        <v>470.29400600000002</v>
+      </c>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>462.60400399999997</v>
       </c>
       <c r="C159" s="1">
         <v>306.84021000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>303.70889</v>
+      <c r="F159" s="7">
+        <v>43075</v>
+      </c>
+      <c r="G159" s="3">
+        <v>462.60400399999997</v>
+      </c>
+      <c r="H159" s="6"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>426.368988</v>
       </c>
       <c r="C160" s="1">
         <v>303.70889</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>294.04520000000002</v>
+      <c r="F160" s="7">
+        <v>43076</v>
+      </c>
+      <c r="G160" s="3">
+        <v>426.368988</v>
+      </c>
+      <c r="H160" s="6"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>434.989014</v>
       </c>
       <c r="C161" s="1">
         <v>294.04520000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>296.8793</v>
+      <c r="F161" s="7">
+        <v>43077</v>
+      </c>
+      <c r="G161" s="3">
+        <v>434.989014</v>
+      </c>
+      <c r="H161" s="6"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>457.34399400000001</v>
       </c>
       <c r="C162" s="1">
         <v>296.8793</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>295.90249999999997</v>
+      <c r="F162" s="7">
+        <v>43078</v>
+      </c>
+      <c r="G162" s="3">
+        <v>457.34399400000001</v>
+      </c>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>472.78900099999998</v>
       </c>
       <c r="C163" s="1">
         <v>295.90249999999997</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>296.40078999999997</v>
+      <c r="F163" s="7">
+        <v>43079</v>
+      </c>
+      <c r="G163" s="3">
+        <v>472.78900099999998</v>
+      </c>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>440.358002</v>
       </c>
       <c r="C164" s="1">
         <v>296.40078999999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>296.71381000000002</v>
+      <c r="F164" s="7">
+        <v>43080</v>
+      </c>
+      <c r="G164" s="3">
+        <v>440.358002</v>
+      </c>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>522.28601100000003</v>
       </c>
       <c r="C165" s="1">
         <v>296.71381000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>284.88839999999999</v>
+      <c r="F165" s="7">
+        <v>43081</v>
+      </c>
+      <c r="G165" s="3">
+        <v>522.28601100000003</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>644.90600600000005</v>
       </c>
       <c r="C166" s="1">
         <v>284.88839999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>293.80569000000003</v>
+      <c r="F166" s="7">
+        <v>43082</v>
+      </c>
+      <c r="G166" s="3">
+        <v>644.90600600000005</v>
+      </c>
+      <c r="H166" s="6"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>700.59399399999995</v>
       </c>
       <c r="C167" s="1">
         <v>293.80569000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>300.2337</v>
+      <c r="F167" s="7">
+        <v>43083</v>
+      </c>
+      <c r="G167" s="3">
+        <v>700.59399399999995</v>
+      </c>
+      <c r="H167" s="6"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>696.37597700000003</v>
       </c>
       <c r="C168" s="1">
         <v>300.2337</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>302.5849</v>
+      <c r="F168" s="7">
+        <v>43084</v>
+      </c>
+      <c r="G168" s="3">
+        <v>696.37597700000003</v>
+      </c>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>686.19201699999996</v>
       </c>
       <c r="C169" s="2">
         <v>302.5849</v>
       </c>
+      <c r="F169" s="7">
+        <v>43085</v>
+      </c>
+      <c r="G169" s="3">
+        <v>686.19201699999996</v>
+      </c>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>696.23699999999997</v>
+      </c>
+      <c r="F170" s="7">
+        <v>43086</v>
+      </c>
+      <c r="G170" s="3">
+        <v>696.23699999999997</v>
+      </c>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>721.73199499999998</v>
+      </c>
+      <c r="F171" s="7">
+        <v>43087</v>
+      </c>
+      <c r="G171" s="3">
+        <v>721.73199499999998</v>
+      </c>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>793.90100099999995</v>
+      </c>
+      <c r="F172" s="7">
+        <v>43088</v>
+      </c>
+      <c r="G172" s="3">
+        <v>793.90100099999995</v>
+      </c>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>827.51599099999999</v>
+      </c>
+      <c r="F173" s="7">
+        <v>43089</v>
+      </c>
+      <c r="G173" s="3">
+        <v>827.51599099999999</v>
+      </c>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>820.23602300000005</v>
+      </c>
+      <c r="F174" s="7">
+        <v>43090</v>
+      </c>
+      <c r="G174" s="3">
+        <v>820.23602300000005</v>
+      </c>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>822.64300500000002</v>
+      </c>
+      <c r="F175" s="7">
+        <v>43091</v>
+      </c>
+      <c r="G175" s="3">
+        <v>822.64300500000002</v>
+      </c>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>681.31597899999997</v>
+      </c>
+      <c r="F176" s="7">
+        <v>43092</v>
+      </c>
+      <c r="G176" s="3">
+        <v>681.31597899999997</v>
+      </c>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>721.76898200000005</v>
+      </c>
+      <c r="F177" s="7">
+        <v>43093</v>
+      </c>
+      <c r="G177" s="3">
+        <v>721.76898200000005</v>
+      </c>
+      <c r="H177" s="6"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>698.86999500000002</v>
+      </c>
+      <c r="F178" s="7">
+        <v>43094</v>
+      </c>
+      <c r="G178" s="3">
+        <v>698.86999500000002</v>
+      </c>
+      <c r="H178" s="6"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>763.36999500000002</v>
+      </c>
+      <c r="F179" s="7">
+        <v>43095</v>
+      </c>
+      <c r="G179" s="3">
+        <v>763.36999500000002</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>774.96997099999999</v>
+      </c>
+      <c r="F180" s="7">
+        <v>43096</v>
+      </c>
+      <c r="G180" s="3">
+        <v>774.96997099999999</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>762.20800799999995</v>
+      </c>
+      <c r="F181" s="7">
+        <v>43097</v>
+      </c>
+      <c r="G181" s="3">
+        <v>762.20800799999995</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>740.38897699999995</v>
+      </c>
+      <c r="F182" s="7">
+        <v>43098</v>
+      </c>
+      <c r="G182" s="3">
+        <v>740.38897699999995</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>753.81500200000005</v>
+      </c>
+      <c r="F183" s="7">
+        <v>43099</v>
+      </c>
+      <c r="G183" s="3">
+        <v>753.81500200000005</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>712.21197500000005</v>
+      </c>
+      <c r="F184" s="7">
+        <v>43100</v>
+      </c>
+      <c r="G184" s="3">
+        <v>712.21197500000005</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>755.75701900000001</v>
+      </c>
+      <c r="F185" s="7">
+        <v>43101</v>
+      </c>
+      <c r="G185" s="3">
+        <v>755.75701900000001</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>772.34600799999998</v>
+      </c>
+      <c r="F186" s="7">
+        <v>43102</v>
+      </c>
+      <c r="G186" s="3">
+        <v>772.34600799999998</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>886</v>
+      </c>
+      <c r="F187" s="7">
+        <v>43103</v>
+      </c>
+      <c r="G187" s="3">
+        <v>886</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>961.71301300000005</v>
+      </c>
+      <c r="F188" s="7">
+        <v>43104</v>
+      </c>
+      <c r="G188" s="3">
+        <v>961.71301300000005</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>975.75</v>
+      </c>
+      <c r="F189" s="7">
+        <v>43105</v>
+      </c>
+      <c r="G189" s="3">
+        <v>975.75</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>995.15399200000002</v>
+      </c>
+      <c r="F190" s="7">
+        <v>43106</v>
+      </c>
+      <c r="G190" s="3">
+        <v>995.15399200000002</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>1043.01001</v>
+      </c>
+      <c r="F191" s="7">
+        <v>43107</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1043.01001</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>1158.26001</v>
+      </c>
+      <c r="F192" s="7">
+        <v>43108</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1158.26001</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>1146</v>
+      </c>
+      <c r="F193" s="7">
+        <v>43109</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1146</v>
+      </c>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>1300.339966</v>
+      </c>
+      <c r="F194" s="7">
+        <v>43110</v>
+      </c>
+      <c r="G194" s="3">
+        <v>1300.339966</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>1268.089966</v>
+      </c>
+      <c r="F195" s="7">
+        <v>43111</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1268.089966</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>1158.290039</v>
+      </c>
+      <c r="F196" s="7">
+        <v>43112</v>
+      </c>
+      <c r="G196" s="3">
+        <v>1158.290039</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>1270.469971</v>
+      </c>
+      <c r="F197" s="7">
+        <v>43113</v>
+      </c>
+      <c r="G197" s="3">
+        <v>1270.469971</v>
+      </c>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>1397.4799800000001</v>
+      </c>
+      <c r="F198" s="7">
+        <v>43114</v>
+      </c>
+      <c r="G198" s="3">
+        <v>1397.4799800000001</v>
+      </c>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>1365.209961</v>
+      </c>
+      <c r="F199" s="7">
+        <v>43115</v>
+      </c>
+      <c r="G199" s="3">
+        <v>1365.209961</v>
+      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>1292.630005</v>
+      </c>
+      <c r="F200" s="7">
+        <v>43116</v>
+      </c>
+      <c r="G200" s="3">
+        <v>1292.630005</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>1061.339966</v>
+      </c>
+      <c r="F201" s="7">
+        <v>43117</v>
+      </c>
+      <c r="G201" s="3">
+        <v>1061.339966</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>1016.440002</v>
+      </c>
+      <c r="F202" s="7">
+        <v>43118</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1016.440002</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>1028.8199460000001</v>
+      </c>
+      <c r="F203" s="7">
+        <v>43119</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1028.8199460000001</v>
+      </c>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+    </row>
+    <row r="204" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>1044.9499510000001</v>
+      </c>
+      <c r="F204" s="7">
+        <v>43120</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1044.9499510000001</v>
+      </c>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+    </row>
+    <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>1155.6800539999999</v>
+      </c>
+      <c r="F205" s="7">
+        <v>43121</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1155.6800539999999</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+    </row>
+    <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>1055.349976</v>
+      </c>
+      <c r="F206" s="7">
+        <v>43122</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1055.349976</v>
+      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+    </row>
+    <row r="207" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>1004.169983</v>
+      </c>
+      <c r="F207" s="7">
+        <v>43123</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1004.169983</v>
+      </c>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+    </row>
+    <row r="208" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>987.47699</v>
+      </c>
+      <c r="F208" s="7">
+        <v>43124</v>
+      </c>
+      <c r="G208" s="3">
+        <v>987.47699</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+    </row>
+    <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>1063.219971</v>
+      </c>
+      <c r="F209" s="7">
+        <v>43125</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1063.219971</v>
+      </c>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+    </row>
+    <row r="210" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>1052.6999510000001</v>
+      </c>
+      <c r="F210" s="7">
+        <v>43126</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1052.6999510000001</v>
+      </c>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+    </row>
+    <row r="211" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>1055.75</v>
+      </c>
+      <c r="F211" s="7">
+        <v>43127</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1055.75</v>
+      </c>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+    </row>
+    <row r="212" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>1111.780029</v>
+      </c>
+      <c r="F212" s="7">
+        <v>43128</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1111.780029</v>
+      </c>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+    </row>
+    <row r="213" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>1246.6999510000001</v>
+      </c>
+      <c r="F213" s="7">
+        <v>43129</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1246.6999510000001</v>
+      </c>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+    </row>
+    <row r="214" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>1184.130005</v>
+      </c>
+      <c r="F214" s="7">
+        <v>43130</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1184.130005</v>
+      </c>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+    </row>
+    <row r="215" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>1071.089966</v>
+      </c>
+      <c r="F215" s="7">
+        <v>43131</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1071.089966</v>
+      </c>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+    </row>
+    <row r="216" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>1119.369995</v>
+      </c>
+      <c r="F216" s="7">
+        <v>43132</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1119.369995</v>
+      </c>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+    </row>
+    <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>1035.7700199999999</v>
+      </c>
+      <c r="F217" s="7">
+        <v>43133</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1035.7700199999999</v>
+      </c>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+    </row>
+    <row r="218" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>919.21099900000002</v>
+      </c>
+      <c r="F218" s="7">
+        <v>43134</v>
+      </c>
+      <c r="G218" s="3">
+        <v>919.21099900000002</v>
+      </c>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+    </row>
+    <row r="219" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>964.66699200000005</v>
+      </c>
+      <c r="F219" s="7">
+        <v>43135</v>
+      </c>
+      <c r="G219" s="3">
+        <v>964.66699200000005</v>
+      </c>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+    </row>
+    <row r="220" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>834.95800799999995</v>
+      </c>
+      <c r="F220" s="7">
+        <v>43136</v>
+      </c>
+      <c r="G220" s="3">
+        <v>834.95800799999995</v>
+      </c>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+    </row>
+    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>707.73699999999997</v>
+      </c>
+      <c r="F221" s="7">
+        <v>43137</v>
+      </c>
+      <c r="G221" s="3">
+        <v>707.73699999999997</v>
+      </c>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+    </row>
+    <row r="222" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>790.42797900000005</v>
+      </c>
+      <c r="F222" s="7">
+        <v>43138</v>
+      </c>
+      <c r="G222" s="3">
+        <v>790.42797900000005</v>
+      </c>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+    </row>
+    <row r="223" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>755.84301800000003</v>
+      </c>
+      <c r="F223" s="7">
+        <v>43139</v>
+      </c>
+      <c r="G223" s="3">
+        <v>755.84301800000003</v>
+      </c>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+    </row>
+    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>818.47997999999995</v>
+      </c>
+      <c r="F224" s="7">
+        <v>43140</v>
+      </c>
+      <c r="G224" s="3">
+        <v>818.47997999999995</v>
+      </c>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+    </row>
+    <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>882.46698000000004</v>
+      </c>
+      <c r="F225" s="7">
+        <v>43141</v>
+      </c>
+      <c r="G225" s="3">
+        <v>882.46698000000004</v>
+      </c>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+    </row>
+    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>859.28802499999995</v>
+      </c>
+      <c r="F226" s="7">
+        <v>43142</v>
+      </c>
+      <c r="G226" s="3">
+        <v>859.28802499999995</v>
+      </c>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+    </row>
+    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>817.50799600000005</v>
+      </c>
+      <c r="F227" s="7">
+        <v>43143</v>
+      </c>
+      <c r="G227" s="3">
+        <v>817.50799600000005</v>
+      </c>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+    </row>
+    <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>869.29303000000004</v>
+      </c>
+      <c r="F228" s="7">
+        <v>43144</v>
+      </c>
+      <c r="G228" s="3">
+        <v>869.29303000000004</v>
+      </c>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+    </row>
+    <row r="229" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>844.27899200000002</v>
+      </c>
+      <c r="F229" s="7">
+        <v>43145</v>
+      </c>
+      <c r="G229" s="3">
+        <v>844.27899200000002</v>
+      </c>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+    </row>
+    <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>923.728027</v>
+      </c>
+      <c r="F230" s="7">
+        <v>43146</v>
+      </c>
+      <c r="G230" s="3">
+        <v>923.728027</v>
+      </c>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+    </row>
+    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>934.78601100000003</v>
+      </c>
+      <c r="F231" s="7">
+        <v>43147</v>
+      </c>
+      <c r="G231" s="3">
+        <v>934.78601100000003</v>
+      </c>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+    </row>
+    <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>944.74798599999997</v>
+      </c>
+      <c r="F232" s="7">
+        <v>43148</v>
+      </c>
+      <c r="G232" s="3">
+        <v>944.74798599999997</v>
+      </c>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+    </row>
+    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>973.34899900000005</v>
+      </c>
+      <c r="F233" s="7">
+        <v>43149</v>
+      </c>
+      <c r="G233" s="3">
+        <v>973.34899900000005</v>
+      </c>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+    </row>
+    <row r="234" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>921.66803000000004</v>
+      </c>
+      <c r="F234" s="7">
+        <v>43150</v>
+      </c>
+      <c r="G234" s="3">
+        <v>921.66803000000004</v>
+      </c>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+    </row>
+    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>943.56701699999996</v>
+      </c>
+      <c r="F235" s="7">
+        <v>43151</v>
+      </c>
+      <c r="G235" s="3">
+        <v>943.56701699999996</v>
+      </c>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+    </row>
+    <row r="236" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>894.13500999999997</v>
+      </c>
+      <c r="F236" s="7">
+        <v>43152</v>
+      </c>
+      <c r="G236" s="3">
+        <v>894.13500999999997</v>
+      </c>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+    </row>
+    <row r="237" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>849.262024</v>
+      </c>
+      <c r="F237" s="7">
+        <v>43153</v>
+      </c>
+      <c r="G237" s="3">
+        <v>849.262024</v>
+      </c>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+    </row>
+    <row r="238" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>811.58502199999998</v>
+      </c>
+      <c r="F238" s="7">
+        <v>43154</v>
+      </c>
+      <c r="G238" s="3">
+        <v>811.58502199999998</v>
+      </c>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+    </row>
+    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>861.59301800000003</v>
+      </c>
+      <c r="F239" s="7">
+        <v>43155</v>
+      </c>
+      <c r="G239" s="3">
+        <v>861.59301800000003</v>
+      </c>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>839.45898399999999</v>
+      </c>
+      <c r="F240" s="7">
+        <v>43156</v>
+      </c>
+      <c r="G240" s="3">
+        <v>839.45898399999999</v>
+      </c>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+    </row>
+    <row r="241" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>845.27801499999998</v>
+      </c>
+      <c r="F241" s="7">
+        <v>43157</v>
+      </c>
+      <c r="G241" s="3">
+        <v>845.27801499999998</v>
+      </c>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+    </row>
+    <row r="242" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>870.36499000000003</v>
+      </c>
+      <c r="F242" s="7">
+        <v>43158</v>
+      </c>
+      <c r="G242" s="3">
+        <v>870.36499000000003</v>
+      </c>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+    </row>
+    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>877.93402100000003</v>
+      </c>
+      <c r="F243" s="7">
+        <v>43159</v>
+      </c>
+      <c r="G243" s="3">
+        <v>877.93402100000003</v>
+      </c>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+    </row>
+    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>856.012024</v>
+      </c>
+      <c r="F244" s="7">
+        <v>43160</v>
+      </c>
+      <c r="G244" s="3">
+        <v>856.012024</v>
+      </c>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>871.76397699999995</v>
+      </c>
+      <c r="F245" s="7">
+        <v>43161</v>
+      </c>
+      <c r="G245" s="3">
+        <v>871.76397699999995</v>
+      </c>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>856.71099900000002</v>
+      </c>
+      <c r="F246" s="7">
+        <v>43162</v>
+      </c>
+      <c r="G246" s="3">
+        <v>856.71099900000002</v>
+      </c>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>856.18597399999999</v>
+      </c>
+      <c r="F247" s="7">
+        <v>43163</v>
+      </c>
+      <c r="G247" s="3">
+        <v>856.18597399999999</v>
+      </c>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>866.84600799999998</v>
+      </c>
+      <c r="F248" s="7">
+        <v>43164</v>
+      </c>
+      <c r="G248" s="3">
+        <v>866.84600799999998</v>
+      </c>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+    </row>
+    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>853.81701699999996</v>
+      </c>
+      <c r="F249" s="7">
+        <v>43165</v>
+      </c>
+      <c r="G249" s="3">
+        <v>853.81701699999996</v>
+      </c>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+    </row>
+    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>816.27099599999997</v>
+      </c>
+      <c r="F250" s="7">
+        <v>43166</v>
+      </c>
+      <c r="G250" s="3">
+        <v>816.27099599999997</v>
+      </c>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+    </row>
+    <row r="251" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>752.57000700000003</v>
+      </c>
+      <c r="F251" s="7">
+        <v>43167</v>
+      </c>
+      <c r="G251" s="3">
+        <v>752.57000700000003</v>
+      </c>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+    </row>
+    <row r="252" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>702.19702099999995</v>
+      </c>
+      <c r="F252" s="7">
+        <v>43168</v>
+      </c>
+      <c r="G252" s="3">
+        <v>702.19702099999995</v>
+      </c>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+    </row>
+    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>730.15997300000004</v>
+      </c>
+      <c r="F253" s="7">
+        <v>43169</v>
+      </c>
+      <c r="G253" s="3">
+        <v>730.15997300000004</v>
+      </c>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+    </row>
+    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>685.31201199999998</v>
+      </c>
+      <c r="F254" s="7">
+        <v>43170</v>
+      </c>
+      <c r="G254" s="3">
+        <v>685.31201199999998</v>
+      </c>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+    </row>
+    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>724.40600600000005</v>
+      </c>
+      <c r="F255" s="7">
+        <v>43171</v>
+      </c>
+      <c r="G255" s="3">
+        <v>724.40600600000005</v>
+      </c>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>698.15301499999998</v>
+      </c>
+      <c r="F256" s="7">
+        <v>43172</v>
+      </c>
+      <c r="G256" s="3">
+        <v>698.15301499999998</v>
+      </c>
+      <c r="H256" s="4"/>
+      <c r="I256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+    </row>
+    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>691.21899399999995</v>
+      </c>
+      <c r="F257" s="7">
+        <v>43173</v>
+      </c>
+      <c r="G257" s="3">
+        <v>691.21899399999995</v>
+      </c>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+    </row>
+    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>614.83898899999997</v>
+      </c>
+      <c r="F258" s="7">
+        <v>43174</v>
+      </c>
+      <c r="G258" s="3">
+        <v>614.83898899999997</v>
+      </c>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+    </row>
+    <row r="259" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>611.77801499999998</v>
+      </c>
+      <c r="F259" s="7">
+        <v>43175</v>
+      </c>
+      <c r="G259" s="3">
+        <v>611.77801499999998</v>
+      </c>
+      <c r="H259" s="4"/>
+      <c r="I259" s="4"/>
+      <c r="J259" s="4"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+    </row>
+    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>601.67797900000005</v>
+      </c>
+      <c r="F260" s="7">
+        <v>43176</v>
+      </c>
+      <c r="G260" s="3">
+        <v>601.67797900000005</v>
+      </c>
+      <c r="H260" s="4"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+    </row>
+    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>551.64001499999995</v>
+      </c>
+      <c r="F261" s="7">
+        <v>43177</v>
+      </c>
+      <c r="G261" s="3">
+        <v>551.64001499999995</v>
+      </c>
+      <c r="H261" s="4"/>
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+    </row>
+    <row r="262" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>546.62597700000003</v>
+      </c>
+      <c r="F262" s="7">
+        <v>43178</v>
+      </c>
+      <c r="G262" s="3">
+        <v>546.62597700000003</v>
+      </c>
+      <c r="H262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+    </row>
+    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>556.72198500000002</v>
+      </c>
+      <c r="F263" s="7">
+        <v>43179</v>
+      </c>
+      <c r="G263" s="3">
+        <v>556.72198500000002</v>
+      </c>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+    </row>
+    <row r="264" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>559.09997599999997</v>
+      </c>
+      <c r="F264" s="7">
+        <v>43180</v>
+      </c>
+      <c r="G264" s="3">
+        <v>559.09997599999997</v>
+      </c>
+      <c r="H264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+    </row>
+    <row r="265" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>562.103027</v>
+      </c>
+      <c r="F265" s="7">
+        <v>43181</v>
+      </c>
+      <c r="G265" s="3">
+        <v>562.103027</v>
+      </c>
+      <c r="H265" s="4"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+    </row>
+    <row r="266" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>539.864014</v>
+      </c>
+      <c r="F266" s="7">
+        <v>43182</v>
+      </c>
+      <c r="G266" s="3">
+        <v>539.864014</v>
+      </c>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+    </row>
+    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>542.57202099999995</v>
+      </c>
+      <c r="F267" s="7">
+        <v>43183</v>
+      </c>
+      <c r="G267" s="3">
+        <v>542.57202099999995</v>
+      </c>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+    </row>
+    <row r="268" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>522.70300299999997</v>
+      </c>
+      <c r="F268" s="7">
+        <v>43184</v>
+      </c>
+      <c r="G268" s="3">
+        <v>522.70300299999997</v>
+      </c>
+      <c r="H268" s="4"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+    </row>
+    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>524.28698699999995</v>
+      </c>
+      <c r="F269" s="7">
+        <v>43185</v>
+      </c>
+      <c r="G269" s="3">
+        <v>524.28698699999995</v>
+      </c>
+      <c r="H269" s="4"/>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+    </row>
+    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>489.58999599999999</v>
+      </c>
+      <c r="F270" s="7">
+        <v>43186</v>
+      </c>
+      <c r="G270" s="3">
+        <v>489.58999599999999</v>
+      </c>
+      <c r="H270" s="4"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+    </row>
+    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>450.29098499999998</v>
+      </c>
+      <c r="F271" s="7">
+        <v>43187</v>
+      </c>
+      <c r="G271" s="3">
+        <v>450.29098499999998</v>
+      </c>
+      <c r="H271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+    </row>
+    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>448.07501200000002</v>
+      </c>
+      <c r="F272" s="7">
+        <v>43188</v>
+      </c>
+      <c r="G272" s="3">
+        <v>448.07501200000002</v>
+      </c>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+    </row>
+    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>385.90499899999998</v>
+      </c>
+      <c r="F273" s="7">
+        <v>43189</v>
+      </c>
+      <c r="G273" s="3">
+        <v>385.90499899999998</v>
+      </c>
+      <c r="H273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+    </row>
+    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>395.00399800000002</v>
+      </c>
+      <c r="F274" s="7">
+        <v>43190</v>
+      </c>
+      <c r="G274" s="3">
+        <v>395.00399800000002</v>
+      </c>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+    </row>
+    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>397.25399800000002</v>
+      </c>
+      <c r="F275" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G275" s="3">
+        <v>397.25399800000002</v>
+      </c>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+    </row>
+    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>379.699005</v>
+      </c>
+      <c r="F276" s="7">
+        <v>43192</v>
+      </c>
+      <c r="G276" s="3">
+        <v>379.699005</v>
+      </c>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+    </row>
+    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>387.31201199999998</v>
+      </c>
+      <c r="F277" s="7">
+        <v>43193</v>
+      </c>
+      <c r="G277" s="3">
+        <v>387.31201199999998</v>
+      </c>
+      <c r="H277" s="4"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+    </row>
+    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>416.48498499999999</v>
+      </c>
+      <c r="F278" s="7">
+        <v>43194</v>
+      </c>
+      <c r="G278" s="3">
+        <v>416.48498499999999</v>
+      </c>
+      <c r="H278" s="4"/>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+    </row>
+    <row r="279" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>379.94699100000003</v>
+      </c>
+      <c r="F279" s="7">
+        <v>43195</v>
+      </c>
+      <c r="G279" s="3">
+        <v>379.94699100000003</v>
+      </c>
+      <c r="H279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+    </row>
+    <row r="280" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>382.73098800000002</v>
+      </c>
+      <c r="F280" s="7">
+        <v>43196</v>
+      </c>
+      <c r="G280" s="3">
+        <v>382.73098800000002</v>
+      </c>
+      <c r="H280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+    </row>
+    <row r="281" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>370.38000499999998</v>
+      </c>
+      <c r="F281" s="7">
+        <v>43197</v>
+      </c>
+      <c r="G281" s="3">
+        <v>370.38000499999998</v>
+      </c>
+      <c r="H281" s="4"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="4"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+    </row>
+    <row r="282" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>385.74301100000002</v>
+      </c>
+      <c r="F282" s="7">
+        <v>43198</v>
+      </c>
+      <c r="G282" s="3">
+        <v>385.74301100000002</v>
+      </c>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+    </row>
+    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>400.85699499999998</v>
+      </c>
+      <c r="F283" s="7">
+        <v>43199</v>
+      </c>
+      <c r="G283" s="3">
+        <v>400.85699499999998</v>
+      </c>
+      <c r="H283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+    </row>
+    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>399.41101099999997</v>
+      </c>
+      <c r="F284" s="7">
+        <v>43200</v>
+      </c>
+      <c r="G284" s="3">
+        <v>399.41101099999997</v>
+      </c>
+      <c r="H284" s="4"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+    </row>
+    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>415.02398699999998</v>
+      </c>
+      <c r="F285" s="7">
+        <v>43201</v>
+      </c>
+      <c r="G285" s="3">
+        <v>415.02398699999998</v>
+      </c>
+      <c r="H285" s="4"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+    </row>
+    <row r="286" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>430.16101099999997</v>
+      </c>
+      <c r="F286" s="7">
+        <v>43202</v>
+      </c>
+      <c r="G286" s="3">
+        <v>430.16101099999997</v>
+      </c>
+      <c r="H286" s="4"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+    </row>
+    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>493.16000400000001</v>
+      </c>
+      <c r="F287" s="7">
+        <v>43203</v>
+      </c>
+      <c r="G287" s="3">
+        <v>493.16000400000001</v>
+      </c>
+      <c r="H287" s="4"/>
+      <c r="I287" s="4"/>
+      <c r="J287" s="4"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+    </row>
+    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>492.57998700000002</v>
+      </c>
+      <c r="F288" s="7">
+        <v>43204</v>
+      </c>
+      <c r="G288" s="3">
+        <v>492.57998700000002</v>
+      </c>
+      <c r="H288" s="4"/>
+      <c r="I288" s="4"/>
+      <c r="J288" s="4"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+    </row>
+    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>502.88000499999998</v>
+      </c>
+      <c r="F289" s="7">
+        <v>43205</v>
+      </c>
+      <c r="G289" s="3">
+        <v>502.88000499999998</v>
+      </c>
+      <c r="H289" s="4"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+    </row>
+    <row r="290" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>532.07397500000002</v>
+      </c>
+      <c r="F290" s="7">
+        <v>43206</v>
+      </c>
+      <c r="G290" s="3">
+        <v>532.07397500000002</v>
+      </c>
+      <c r="H290" s="4"/>
+      <c r="I290" s="4"/>
+      <c r="J290" s="4"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+    </row>
+    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>511.14498900000001</v>
+      </c>
+      <c r="F291" s="7">
+        <v>43207</v>
+      </c>
+      <c r="G291" s="3">
+        <v>511.14498900000001</v>
+      </c>
+      <c r="H291" s="4"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="4"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
+    </row>
+    <row r="292" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>503.30898999999999</v>
+      </c>
+      <c r="F292" s="7">
+        <v>43208</v>
+      </c>
+      <c r="G292" s="3">
+        <v>503.30898999999999</v>
+      </c>
+      <c r="H292" s="4"/>
+      <c r="I292" s="4"/>
+      <c r="J292" s="4"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+    </row>
+    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>524.03802499999995</v>
+      </c>
+      <c r="F293" s="7">
+        <v>43209</v>
+      </c>
+      <c r="G293" s="3">
+        <v>524.03802499999995</v>
+      </c>
+      <c r="H293" s="4"/>
+      <c r="I293" s="4"/>
+      <c r="J293" s="4"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+    </row>
+    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>567.989014</v>
+      </c>
+      <c r="F294" s="7">
+        <v>43210</v>
+      </c>
+      <c r="G294" s="3">
+        <v>567.989014</v>
+      </c>
+      <c r="H294" s="4"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="4"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+    </row>
+    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>616.00402799999995</v>
+      </c>
+      <c r="F295" s="7">
+        <v>43211</v>
+      </c>
+      <c r="G295" s="3">
+        <v>616.00402799999995</v>
+      </c>
+      <c r="H295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+    </row>
+    <row r="296" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>606.11901899999998</v>
+      </c>
+      <c r="F296" s="7">
+        <v>43212</v>
+      </c>
+      <c r="G296" s="3">
+        <v>606.11901899999998</v>
+      </c>
+      <c r="H296" s="4"/>
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+    </row>
+    <row r="297" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>621.19897500000002</v>
+      </c>
+      <c r="F297" s="7">
+        <v>43213</v>
+      </c>
+      <c r="G297" s="3">
+        <v>621.19897500000002</v>
+      </c>
+      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
+      <c r="J297" s="4"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+    </row>
+    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>643.39801</v>
+      </c>
+      <c r="F298" s="7">
+        <v>43214</v>
+      </c>
+      <c r="G298" s="3">
+        <v>643.39801</v>
+      </c>
+      <c r="H298" s="4"/>
+      <c r="I298" s="4"/>
+      <c r="J298" s="4"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+    </row>
+    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>707.06201199999998</v>
+      </c>
+      <c r="F299" s="7">
+        <v>43215</v>
+      </c>
+      <c r="G299" s="3">
+        <v>707.06201199999998</v>
+      </c>
+      <c r="H299" s="4"/>
+      <c r="I299" s="4"/>
+      <c r="J299" s="4"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+    </row>
+    <row r="300" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>618.078979</v>
+      </c>
+      <c r="F300" s="7">
+        <v>43216</v>
+      </c>
+      <c r="G300" s="3">
+        <v>618.078979</v>
+      </c>
+      <c r="H300" s="4"/>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+    </row>
+    <row r="301" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>662.10900900000001</v>
+      </c>
+      <c r="F301" s="7">
+        <v>43217</v>
+      </c>
+      <c r="G301" s="3">
+        <v>662.10900900000001</v>
+      </c>
+      <c r="H301" s="4"/>
+      <c r="I301" s="4"/>
+      <c r="J301" s="4"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+    </row>
+    <row r="302" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>644.64599599999997</v>
+      </c>
+      <c r="F302" s="7">
+        <v>43218</v>
+      </c>
+      <c r="G302" s="3">
+        <v>644.64599599999997</v>
+      </c>
+      <c r="H302" s="4"/>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+    </row>
+    <row r="303" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>683.91198699999995</v>
+      </c>
+      <c r="F303" s="7">
+        <v>43219</v>
+      </c>
+      <c r="G303" s="3">
+        <v>683.91198699999995</v>
+      </c>
+      <c r="H303" s="4"/>
+      <c r="I303" s="4"/>
+      <c r="J303" s="4"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="5"/>
+    </row>
+    <row r="304" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>689.760986</v>
+      </c>
+      <c r="F304" s="7">
+        <v>43220</v>
+      </c>
+      <c r="G304" s="3">
+        <v>689.760986</v>
+      </c>
+      <c r="H304" s="4"/>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+    </row>
+    <row r="305" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>670.46301300000005</v>
+      </c>
+      <c r="F305" s="7">
+        <v>43221</v>
+      </c>
+      <c r="G305" s="3">
+        <v>670.46301300000005</v>
+      </c>
+      <c r="H305" s="4"/>
+      <c r="I305" s="4"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+    </row>
+    <row r="306" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>674.07501200000002</v>
+      </c>
+      <c r="F306" s="7">
+        <v>43222</v>
+      </c>
+      <c r="G306" s="3">
+        <v>674.07501200000002</v>
+      </c>
+      <c r="H306" s="4"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+    </row>
+    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>686.591003</v>
+      </c>
+      <c r="F307" s="7">
+        <v>43223</v>
+      </c>
+      <c r="G307" s="3">
+        <v>686.591003</v>
+      </c>
+      <c r="H307" s="4"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+    </row>
+    <row r="308" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>776.77502400000003</v>
+      </c>
+      <c r="F308" s="7">
+        <v>43224</v>
+      </c>
+      <c r="G308" s="3">
+        <v>776.77502400000003</v>
+      </c>
+      <c r="H308" s="4"/>
+      <c r="I308" s="4"/>
+      <c r="J308" s="4"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+    </row>
+    <row r="309" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>784.58300799999995</v>
+      </c>
+      <c r="F309" s="7">
+        <v>43225</v>
+      </c>
+      <c r="G309" s="3">
+        <v>784.58300799999995</v>
+      </c>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+    </row>
+    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>816.08801300000005</v>
+      </c>
+      <c r="F310" s="7">
+        <v>43226</v>
+      </c>
+      <c r="G310" s="3">
+        <v>816.08801300000005</v>
+      </c>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+    </row>
+    <row r="311" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>793.33898899999997</v>
+      </c>
+      <c r="F311" s="7">
+        <v>43227</v>
+      </c>
+      <c r="G311" s="3">
+        <v>793.33898899999997</v>
+      </c>
+      <c r="H311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+    </row>
+    <row r="312" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>755.00897199999997</v>
+      </c>
+      <c r="F312" s="7">
+        <v>43228</v>
+      </c>
+      <c r="G312" s="3">
+        <v>755.00897199999997</v>
+      </c>
+      <c r="H312" s="4"/>
+      <c r="I312" s="4"/>
+      <c r="J312" s="4"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+    </row>
+    <row r="313" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>752.90197799999999</v>
+      </c>
+      <c r="F313" s="7">
+        <v>43229</v>
+      </c>
+      <c r="G313" s="3">
+        <v>752.90197799999999</v>
+      </c>
+      <c r="H313" s="4"/>
+      <c r="I313" s="4"/>
+      <c r="J313" s="4"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="5"/>
+    </row>
+    <row r="314" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>752.578979</v>
+      </c>
+      <c r="F314" s="7">
+        <v>43230</v>
+      </c>
+      <c r="G314" s="3">
+        <v>752.578979</v>
+      </c>
+      <c r="H314" s="4"/>
+      <c r="I314" s="4"/>
+      <c r="J314" s="4"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+    </row>
+    <row r="315" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>727.01300000000003</v>
+      </c>
+      <c r="F315" s="7">
+        <v>43231</v>
+      </c>
+      <c r="G315" s="3">
+        <v>727.01300000000003</v>
+      </c>
+      <c r="H315" s="4"/>
+      <c r="I315" s="4"/>
+      <c r="J315" s="4"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="5"/>
+    </row>
+    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>679.87701400000003</v>
+      </c>
+      <c r="F316" s="7">
+        <v>43232</v>
+      </c>
+      <c r="G316" s="3">
+        <v>679.87701400000003</v>
+      </c>
+      <c r="H316" s="4"/>
+      <c r="I316" s="4"/>
+      <c r="J316" s="4"/>
+      <c r="K316" s="5"/>
+      <c r="L316" s="5"/>
+    </row>
+    <row r="317" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>687.17498799999998</v>
+      </c>
+      <c r="F317" s="7">
+        <v>43233</v>
+      </c>
+      <c r="G317" s="3">
+        <v>687.17498799999998</v>
+      </c>
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
+      <c r="J317" s="4"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="5"/>
+    </row>
+    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>732.73297100000002</v>
+      </c>
+      <c r="F318" s="7">
+        <v>43234</v>
+      </c>
+      <c r="G318" s="3">
+        <v>732.73297100000002</v>
+      </c>
+      <c r="H318" s="4"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+    </row>
+    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>731.14300500000002</v>
+      </c>
+      <c r="F319" s="7">
+        <v>43235</v>
+      </c>
+      <c r="G319" s="3">
+        <v>731.14300500000002</v>
+      </c>
+      <c r="H319" s="4"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="5"/>
+    </row>
+    <row r="320" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>708.08697500000005</v>
+      </c>
+      <c r="F320" s="7">
+        <v>43236</v>
+      </c>
+      <c r="G320" s="3">
+        <v>708.08697500000005</v>
+      </c>
+      <c r="H320" s="4"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="5"/>
+    </row>
+    <row r="321" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>708.71801800000003</v>
+      </c>
+      <c r="F321" s="7">
+        <v>43237</v>
+      </c>
+      <c r="G321" s="3">
+        <v>708.71801800000003</v>
+      </c>
+      <c r="H321" s="4"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+    </row>
+    <row r="322" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>672.10199</v>
+      </c>
+      <c r="F322" s="7">
+        <v>43238</v>
+      </c>
+      <c r="G322" s="3">
+        <v>672.10199</v>
+      </c>
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+    </row>
+    <row r="323" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>695.07202099999995</v>
+      </c>
+      <c r="F323" s="7">
+        <v>43239</v>
+      </c>
+      <c r="G323" s="3">
+        <v>695.07202099999995</v>
+      </c>
+      <c r="H323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+    </row>
+    <row r="324" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>697.92297399999995</v>
+      </c>
+      <c r="F324" s="7">
+        <v>43240</v>
+      </c>
+      <c r="G324" s="3">
+        <v>697.92297399999995</v>
+      </c>
+      <c r="H324" s="4"/>
+      <c r="I324" s="4"/>
+      <c r="J324" s="4"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+    </row>
+    <row r="325" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>717.192993</v>
+      </c>
+      <c r="F325" s="7">
+        <v>43241</v>
+      </c>
+      <c r="G325" s="3">
+        <v>717.192993</v>
+      </c>
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+    </row>
+    <row r="326" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>700.17797900000005</v>
+      </c>
+      <c r="F326" s="7">
+        <v>43242</v>
+      </c>
+      <c r="G326" s="3">
+        <v>700.17797900000005</v>
+      </c>
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+    </row>
+    <row r="327" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>646.669983</v>
+      </c>
+      <c r="F327" s="7">
+        <v>43243</v>
+      </c>
+      <c r="G327" s="3">
+        <v>646.669983</v>
+      </c>
+      <c r="H327" s="4"/>
+      <c r="I327" s="4"/>
+      <c r="J327" s="4"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="5"/>
+    </row>
+    <row r="328" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <v>584.53601100000003</v>
+      </c>
+      <c r="F328" s="7">
+        <v>43244</v>
+      </c>
+      <c r="G328" s="3">
+        <v>584.53601100000003</v>
+      </c>
+      <c r="H328" s="4"/>
+      <c r="I328" s="4"/>
+      <c r="J328" s="4"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+    </row>
+    <row r="329" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <v>602.14001499999995</v>
+      </c>
+      <c r="F329" s="7">
+        <v>43245</v>
+      </c>
+      <c r="G329" s="3">
+        <v>602.14001499999995</v>
+      </c>
+      <c r="H329" s="4"/>
+      <c r="I329" s="4"/>
+      <c r="J329" s="4"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="5"/>
+    </row>
+    <row r="330" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
+        <v>587.42602499999998</v>
+      </c>
+      <c r="F330" s="7">
+        <v>43246</v>
+      </c>
+      <c r="G330" s="3">
+        <v>587.42602499999998</v>
+      </c>
+      <c r="H330" s="4"/>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="5"/>
+    </row>
+    <row r="331" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
+        <v>588.52002000000005</v>
+      </c>
+      <c r="F331" s="7">
+        <v>43247</v>
+      </c>
+      <c r="G331" s="3">
+        <v>588.52002000000005</v>
+      </c>
+      <c r="H331" s="4"/>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="5"/>
+    </row>
+    <row r="332" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
+        <v>573.044983</v>
+      </c>
+      <c r="F332" s="7">
+        <v>43248</v>
+      </c>
+      <c r="G332" s="3">
+        <v>573.044983</v>
+      </c>
+      <c r="H332" s="4"/>
+      <c r="I332" s="4"/>
+      <c r="J332" s="4"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="5"/>
+    </row>
+    <row r="333" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
+        <v>516.14801</v>
+      </c>
+      <c r="F333" s="7">
+        <v>43249</v>
+      </c>
+      <c r="G333" s="3">
+        <v>516.14801</v>
+      </c>
+      <c r="H333" s="4"/>
+      <c r="I333" s="4"/>
+      <c r="J333" s="4"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="5"/>
+    </row>
+    <row r="334" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
+        <v>566.830017</v>
+      </c>
+      <c r="F334" s="7">
+        <v>43250</v>
+      </c>
+      <c r="G334" s="3">
+        <v>566.830017</v>
+      </c>
+      <c r="H334" s="4"/>
+      <c r="I334" s="4"/>
+      <c r="J334" s="4"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="5"/>
+    </row>
+    <row r="335" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
+        <v>558.49700900000005</v>
+      </c>
+      <c r="F335" s="7">
+        <v>43251</v>
+      </c>
+      <c r="G335" s="3">
+        <v>558.49700900000005</v>
+      </c>
+      <c r="H335" s="4"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+    </row>
+    <row r="336" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
+        <v>578.67199700000003</v>
+      </c>
+      <c r="F336" s="7">
+        <v>43252</v>
+      </c>
+      <c r="G336" s="3">
+        <v>578.67199700000003</v>
+      </c>
+      <c r="H336" s="4"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="4"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="5"/>
+    </row>
+    <row r="337" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <v>580.42901600000005</v>
+      </c>
+      <c r="F337" s="7">
+        <v>43253</v>
+      </c>
+      <c r="G337" s="3">
+        <v>580.42901600000005</v>
+      </c>
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+      <c r="K337" s="5"/>
+      <c r="L337" s="5"/>
+    </row>
+    <row r="338" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <v>591.25897199999997</v>
+      </c>
+      <c r="F338" s="7">
+        <v>43254</v>
+      </c>
+      <c r="G338" s="3">
+        <v>591.25897199999997</v>
+      </c>
+      <c r="H338" s="4"/>
+      <c r="I338" s="4"/>
+      <c r="J338" s="4"/>
+      <c r="K338" s="5"/>
+      <c r="L338" s="5"/>
+    </row>
+    <row r="339" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <v>619.43701199999998</v>
+      </c>
+      <c r="F339" s="7">
+        <v>43255</v>
+      </c>
+      <c r="G339" s="3">
+        <v>619.43701199999998</v>
+      </c>
+      <c r="H339" s="4"/>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+      <c r="K339" s="5"/>
+      <c r="L339" s="5"/>
+    </row>
+    <row r="340" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>593.40600600000005</v>
+      </c>
+      <c r="F340" s="7">
+        <v>43256</v>
+      </c>
+      <c r="G340" s="3">
+        <v>593.40600600000005</v>
+      </c>
+      <c r="H340" s="4"/>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+      <c r="K340" s="5"/>
+      <c r="L340" s="5"/>
+    </row>
+    <row r="341" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>610.262024</v>
+      </c>
+      <c r="F341" s="7">
+        <v>43257</v>
+      </c>
+      <c r="G341" s="3">
+        <v>610.262024</v>
+      </c>
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+      <c r="K341" s="5"/>
+      <c r="L341" s="5"/>
+    </row>
+    <row r="342" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>607.68701199999998</v>
+      </c>
+      <c r="F342" s="7">
+        <v>43258</v>
+      </c>
+      <c r="G342" s="3">
+        <v>607.68701199999998</v>
+      </c>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4"/>
+      <c r="K342" s="5"/>
+      <c r="L342" s="5"/>
+    </row>
+    <row r="343" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>605.442993</v>
+      </c>
+      <c r="F343" s="7">
+        <v>43259</v>
+      </c>
+      <c r="G343" s="3">
+        <v>605.442993</v>
+      </c>
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="4"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="5"/>
+    </row>
+    <row r="344" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <v>600.90502900000001</v>
+      </c>
+      <c r="F344" s="7">
+        <v>43260</v>
+      </c>
+      <c r="G344" s="3">
+        <v>600.90502900000001</v>
+      </c>
+      <c r="H344" s="4"/>
+      <c r="I344" s="4"/>
+      <c r="J344" s="4"/>
+      <c r="K344" s="5"/>
+      <c r="L344" s="5"/>
+    </row>
+    <row r="345" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
+        <v>594.34497099999999</v>
+      </c>
+      <c r="F345" s="7">
+        <v>43261</v>
+      </c>
+      <c r="G345" s="3">
+        <v>594.34497099999999</v>
+      </c>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="5"/>
+    </row>
+    <row r="346" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
+        <v>524.85699499999998</v>
+      </c>
+      <c r="F346" s="7">
+        <v>43262</v>
+      </c>
+      <c r="G346" s="3">
+        <v>524.85699499999998</v>
+      </c>
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="5"/>
+    </row>
+    <row r="347" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
+        <v>532.71002199999998</v>
+      </c>
+      <c r="F347" s="7">
+        <v>43263</v>
+      </c>
+      <c r="G347" s="3">
+        <v>532.71002199999998</v>
+      </c>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="5"/>
+    </row>
+    <row r="348" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
+        <v>498.01800500000002</v>
+      </c>
+      <c r="F348" s="7">
+        <v>43264</v>
+      </c>
+      <c r="G348" s="3">
+        <v>498.01800500000002</v>
+      </c>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="K348" s="5"/>
+      <c r="L348" s="5"/>
+    </row>
+    <row r="349" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
+        <v>478.381012</v>
+      </c>
+      <c r="F349" s="7">
+        <v>43265</v>
+      </c>
+      <c r="G349" s="3">
+        <v>478.381012</v>
+      </c>
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="5"/>
+    </row>
+    <row r="350" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
+        <v>520.47997999999995</v>
+      </c>
+      <c r="F350" s="7">
+        <v>43266</v>
+      </c>
+      <c r="G350" s="3">
+        <v>520.47997999999995</v>
+      </c>
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="5"/>
+    </row>
+    <row r="351" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
+        <v>490.41400099999998</v>
+      </c>
+      <c r="F351" s="7">
+        <v>43267</v>
+      </c>
+      <c r="G351" s="3">
+        <v>490.41400099999998</v>
+      </c>
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="5"/>
+    </row>
+    <row r="352" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
+        <v>499.459991</v>
+      </c>
+      <c r="F352" s="7">
+        <v>43268</v>
+      </c>
+      <c r="G352" s="3">
+        <v>499.459991</v>
+      </c>
+      <c r="H352" s="4"/>
+      <c r="I352" s="4"/>
+      <c r="J352" s="4"/>
+      <c r="K352" s="5"/>
+      <c r="L352" s="5"/>
+    </row>
+    <row r="353" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
+        <v>499.38299599999999</v>
+      </c>
+      <c r="F353" s="7">
+        <v>43269</v>
+      </c>
+      <c r="G353" s="3">
+        <v>499.38299599999999</v>
+      </c>
+      <c r="H353" s="4"/>
+      <c r="I353" s="4"/>
+      <c r="J353" s="4"/>
+      <c r="K353" s="5"/>
+      <c r="L353" s="5"/>
+    </row>
+    <row r="354" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A354" s="3">
+        <v>519.02301</v>
+      </c>
+      <c r="F354" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G354" s="3">
+        <v>519.02301</v>
+      </c>
+      <c r="H354" s="4"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+      <c r="K354" s="5"/>
+      <c r="L354" s="5"/>
+    </row>
+    <row r="355" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A355" s="3">
+        <v>538.50598100000002</v>
+      </c>
+      <c r="F355" s="7">
+        <v>43271</v>
+      </c>
+      <c r="G355" s="3">
+        <v>538.50598100000002</v>
+      </c>
+      <c r="H355" s="4"/>
+      <c r="I355" s="4"/>
+      <c r="J355" s="4"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="5"/>
+    </row>
+    <row r="356" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A356" s="3">
+        <v>536.44702099999995</v>
+      </c>
+      <c r="F356" s="7">
+        <v>43272</v>
+      </c>
+      <c r="G356" s="3">
+        <v>536.44702099999995</v>
+      </c>
+      <c r="H356" s="4"/>
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+      <c r="K356" s="5"/>
+      <c r="L356" s="5"/>
+    </row>
+    <row r="357" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A357" s="3">
+        <v>527.19397000000004</v>
+      </c>
+      <c r="F357" s="7">
+        <v>43273</v>
+      </c>
+      <c r="G357" s="3">
+        <v>527.19397000000004</v>
+      </c>
+      <c r="H357" s="4"/>
+      <c r="I357" s="4"/>
+      <c r="J357" s="4"/>
+      <c r="K357" s="5"/>
+      <c r="L357" s="5"/>
+    </row>
+    <row r="358" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A358" s="3">
+        <v>466.27398699999998</v>
+      </c>
+      <c r="F358" s="7">
+        <v>43274</v>
+      </c>
+      <c r="G358" s="3">
+        <v>466.27398699999998</v>
+      </c>
+      <c r="H358" s="4"/>
+      <c r="I358" s="4"/>
+      <c r="J358" s="4"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+    </row>
+    <row r="359" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A359" s="3">
+        <v>474.76800500000002</v>
+      </c>
+      <c r="F359" s="7">
+        <v>43275</v>
+      </c>
+      <c r="G359" s="3">
+        <v>474.76800500000002</v>
+      </c>
+      <c r="H359" s="4"/>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="5"/>
+    </row>
+    <row r="360" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A360" s="3">
+        <v>455.93600500000002</v>
+      </c>
+      <c r="F360" s="7">
+        <v>43276</v>
+      </c>
+      <c r="G360" s="3">
+        <v>455.93600500000002</v>
+      </c>
+      <c r="H360" s="4"/>
+      <c r="I360" s="4"/>
+      <c r="J360" s="4"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="5"/>
+    </row>
+    <row r="361" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A361" s="3">
+        <v>460.733002</v>
+      </c>
+      <c r="F361" s="7">
+        <v>43277</v>
+      </c>
+      <c r="G361" s="3">
+        <v>460.733002</v>
+      </c>
+      <c r="H361" s="4"/>
+      <c r="I361" s="4"/>
+      <c r="J361" s="4"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="5"/>
+    </row>
+    <row r="362" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A362" s="3">
+        <v>432.243988</v>
+      </c>
+      <c r="F362" s="7">
+        <v>43278</v>
+      </c>
+      <c r="G362" s="3">
+        <v>432.243988</v>
+      </c>
+      <c r="H362" s="4"/>
+      <c r="I362" s="4"/>
+      <c r="J362" s="4"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+    </row>
+    <row r="363" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A363" s="3">
+        <v>442.290009</v>
+      </c>
+      <c r="F363" s="7">
+        <v>43279</v>
+      </c>
+      <c r="G363" s="3">
+        <v>442.290009</v>
+      </c>
+      <c r="H363" s="4"/>
+      <c r="I363" s="4"/>
+      <c r="J363" s="4"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+    </row>
+    <row r="364" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A364" s="3">
+        <v>422.58700599999997</v>
+      </c>
+      <c r="F364" s="7">
+        <v>43280</v>
+      </c>
+      <c r="G364" s="3">
+        <v>422.58700599999997</v>
+      </c>
+      <c r="H364" s="4"/>
+      <c r="I364" s="4"/>
+      <c r="J364" s="4"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="5"/>
+    </row>
+    <row r="365" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A365" s="3">
+        <v>436.20901500000002</v>
+      </c>
+      <c r="F365" s="7">
+        <v>43281</v>
+      </c>
+      <c r="G365" s="3">
+        <v>436.20901500000002</v>
+      </c>
+      <c r="H365" s="4"/>
+      <c r="I365" s="4"/>
+      <c r="J365" s="4"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+    </row>
+    <row r="366" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A366" s="3">
+        <v>455.24200400000001</v>
+      </c>
+      <c r="F366" s="7">
+        <v>43282</v>
+      </c>
+      <c r="G366" s="3">
+        <v>455.24200400000001</v>
+      </c>
+      <c r="H366" s="4"/>
+      <c r="I366" s="4"/>
+      <c r="J366" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scripts/ethPrice.xlsx
+++ b/scripts/ethPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guzziplus/ThesisPro/mai-contracts/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64302CB9-95C8-2A4B-9CB7-42E9763DDEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7FC2C2-C1B7-894B-9816-8125AB47616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F9D9460E-5B5D-3B42-98FA-30F273E19C44}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{F9D9460E-5B5D-3B42-98FA-30F273E19C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +417,7 @@
   <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +427,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
-        <v>293.35299700000002</v>
+        <v>331.98001099999999</v>
       </c>
       <c r="C1" s="1">
         <v>370.00400000000002</v>
@@ -447,7 +443,7 @@
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>275.12298600000003</v>
+        <v>347.40100100000001</v>
       </c>
       <c r="C2" s="1">
         <v>381.50580000000002</v>
@@ -467,7 +463,7 @@
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>288.41400099999998</v>
+        <v>354.09399400000001</v>
       </c>
       <c r="C3" s="1">
         <v>378.45389</v>
@@ -487,7 +483,7 @@
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>282.19101000000001</v>
+        <v>367.442993</v>
       </c>
       <c r="C4" s="1">
         <v>415.89969000000002</v>
@@ -507,7 +503,7 @@
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>273.09899899999999</v>
+        <v>360.31201199999998</v>
       </c>
       <c r="C5" s="1">
         <v>384.35251</v>
@@ -527,7 +523,7 @@
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>268.858002</v>
+        <v>381.43899499999998</v>
       </c>
       <c r="C6" s="1">
         <v>378.83371</v>
@@ -547,7 +543,7 @@
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>270.35000600000001</v>
+        <v>412.50100700000002</v>
       </c>
       <c r="C7" s="1">
         <v>394.27301</v>
@@ -567,7 +563,7 @@
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>245.88999899999999</v>
+        <v>475.675995</v>
       </c>
       <c r="C8" s="1">
         <v>393.64278999999999</v>
@@ -587,7 +583,7 @@
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>251.82200599999999</v>
+        <v>465.97399899999999</v>
       </c>
       <c r="C9" s="1">
         <v>383.48831000000001</v>
@@ -607,7 +603,7 @@
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>243.01100199999999</v>
+        <v>471.53100599999999</v>
       </c>
       <c r="C10" s="1">
         <v>445.52359000000001</v>
@@ -627,7 +623,7 @@
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>211.52499399999999</v>
+        <v>480.51800500000002</v>
       </c>
       <c r="C11" s="1">
         <v>449.07199000000003</v>
@@ -647,7 +643,7 @@
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>197.151993</v>
+        <v>473.28100599999999</v>
       </c>
       <c r="C12" s="1">
         <v>486.70348999999999</v>
@@ -667,7 +663,7 @@
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>231.81199599999999</v>
+        <v>431.21499599999999</v>
       </c>
       <c r="C13" s="1">
         <v>523.60491999999999</v>
@@ -687,7 +683,7 @@
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>209.52900700000001</v>
+        <v>445.20901500000002</v>
       </c>
       <c r="C14" s="1">
         <v>520.28301999999996</v>
@@ -707,7 +703,7 @@
     </row>
     <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>199.709</v>
+        <v>466.85101300000002</v>
       </c>
       <c r="C15" s="1">
         <v>543.9248</v>
@@ -727,7 +723,7 @@
     </row>
     <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>169.574005</v>
+        <v>463.70498700000002</v>
       </c>
       <c r="C16" s="1">
         <v>539.83752000000004</v>
@@ -747,7 +743,7 @@
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>159.99099699999999</v>
+        <v>466.05398600000001</v>
       </c>
       <c r="C17" s="1">
         <v>559.99237000000005</v>
@@ -767,7 +763,7 @@
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>195.026993</v>
+        <v>470.29400600000002</v>
       </c>
       <c r="C18" s="1">
         <v>565.64832000000001</v>
@@ -787,7 +783,7 @@
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>234.94099399999999</v>
+        <v>462.60400399999997</v>
       </c>
       <c r="C19" s="1">
         <v>555.27551000000005</v>
@@ -807,7 +803,7 @@
     </row>
     <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>205.421997</v>
+        <v>426.368988</v>
       </c>
       <c r="C20" s="1">
         <v>537.98186999999996</v>
@@ -827,7 +823,7 @@
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>226.06100499999999</v>
+        <v>434.989014</v>
       </c>
       <c r="C21" s="1">
         <v>550.27050999999994</v>
@@ -847,7 +843,7 @@
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>217.86000100000001</v>
+        <v>457.34399400000001</v>
       </c>
       <c r="C22" s="1">
         <v>600.55109000000004</v>
@@ -867,7 +863,7 @@
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>229.12300099999999</v>
+        <v>472.78900099999998</v>
       </c>
       <c r="C23" s="1">
         <v>610.46691999999996</v>
@@ -886,7 +882,7 @@
     </row>
     <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>226.28500399999999</v>
+        <v>440.358002</v>
       </c>
       <c r="C24" s="1">
         <v>612.25951999999995</v>
@@ -905,7 +901,7 @@
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>224.37300099999999</v>
+        <v>522.28601100000003</v>
       </c>
       <c r="C25" s="1">
         <v>689.59857</v>
@@ -924,7 +920,7 @@
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>207.08599899999999</v>
+        <v>644.90600600000005</v>
       </c>
       <c r="C26" s="1">
         <v>696.65790000000004</v>
@@ -943,7 +939,7 @@
     </row>
     <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>204.85600299999999</v>
+        <v>700.59399399999995</v>
       </c>
       <c r="C27" s="1">
         <v>719.87958000000003</v>
@@ -962,7 +958,7 @@
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>204.324997</v>
+        <v>696.37597700000003</v>
       </c>
       <c r="C28" s="1">
         <v>681.45862</v>
@@ -981,7 +977,7 @@
     </row>
     <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>193.341003</v>
+        <v>686.19201699999996</v>
       </c>
       <c r="C29" s="1">
         <v>726.99292000000003</v>
@@ -1000,7 +996,7 @@
     </row>
     <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>206.73599200000001</v>
+        <v>696.23699999999997</v>
       </c>
       <c r="C30" s="1">
         <v>699.12072999999998</v>
@@ -1019,7 +1015,7 @@
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>197.404999</v>
+        <v>721.73199499999998</v>
       </c>
       <c r="C31" s="1">
         <v>750.14739999999995</v>
@@ -1038,7 +1034,7 @@
     </row>
     <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>204.68800400000001</v>
+        <v>793.90100099999995</v>
       </c>
       <c r="C32" s="1">
         <v>814.50562000000002</v>
@@ -1057,7 +1053,7 @@
     </row>
     <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>227.00599700000001</v>
+        <v>827.51599099999999</v>
       </c>
       <c r="C33" s="1">
         <v>848.48071000000004</v>
@@ -1076,7 +1072,7 @@
     </row>
     <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>220.179993</v>
+        <v>820.23602300000005</v>
       </c>
       <c r="C34" s="1">
         <v>864.06952000000001</v>
@@ -1095,7 +1091,7 @@
     </row>
     <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>225.307999</v>
+        <v>822.64300500000002</v>
       </c>
       <c r="C35" s="1">
         <v>853.92291</v>
@@ -1114,7 +1110,7 @@
     </row>
     <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>222.85200499999999</v>
+        <v>681.31597899999997</v>
       </c>
       <c r="C36" s="1">
         <v>854.79510000000005</v>
@@ -1133,7 +1129,7 @@
     </row>
     <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>256.41900600000002</v>
+        <v>721.76898200000005</v>
       </c>
       <c r="C37" s="1">
         <v>869.12207000000001</v>
@@ -1152,7 +1148,7 @@
     </row>
     <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>261.23700000000002</v>
+        <v>698.86999500000002</v>
       </c>
       <c r="C38" s="1">
         <v>850.66449</v>
@@ -1171,7 +1167,7 @@
     </row>
     <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>269.10000600000001</v>
+        <v>763.36999500000002</v>
       </c>
       <c r="C39" s="1">
         <v>871.80547999999999</v>
@@ -1190,7 +1186,7 @@
     </row>
     <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>297.63198899999998</v>
+        <v>774.96997099999999</v>
       </c>
       <c r="C40" s="1">
         <v>867.41729999999995</v>
@@ -1209,7 +1205,7 @@
     </row>
     <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>296.96099900000002</v>
+        <v>762.20800799999995</v>
       </c>
       <c r="C41" s="1">
         <v>840.82457999999997</v>
@@ -1228,7 +1224,7 @@
     </row>
     <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>294.49499500000002</v>
+        <v>740.38897699999995</v>
       </c>
       <c r="C42" s="1">
         <v>832.83911000000001</v>
@@ -1247,7 +1243,7 @@
     </row>
     <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>308.709991</v>
+        <v>753.81500200000005</v>
       </c>
       <c r="C43" s="1">
         <v>853.57079999999996</v>
@@ -1266,7 +1262,7 @@
     </row>
     <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>310.36599699999999</v>
+        <v>712.21197500000005</v>
       </c>
       <c r="C44" s="1">
         <v>804.55840999999998</v>
@@ -1285,7 +1281,7 @@
     </row>
     <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>298.03100599999999</v>
+        <v>755.75701900000001</v>
       </c>
       <c r="C45" s="1">
         <v>839.46880999999996</v>
@@ -1304,7 +1300,7 @@
     </row>
     <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>299.95199600000001</v>
+        <v>772.34600799999998</v>
       </c>
       <c r="C46" s="1">
         <v>884.67022999999995</v>
@@ -1323,7 +1319,7 @@
     </row>
     <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>289.81900000000002</v>
+        <v>886</v>
       </c>
       <c r="C47" s="1">
         <v>939.71929999999998</v>
@@ -1342,7 +1338,7 @@
     </row>
     <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>302.80499300000002</v>
+        <v>961.71301300000005</v>
       </c>
       <c r="C48" s="1">
         <v>914.42853000000002</v>
@@ -1361,7 +1357,7 @@
     </row>
     <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>301.69699100000003</v>
+        <v>975.75</v>
       </c>
       <c r="C49" s="1">
         <v>975.0249</v>
@@ -1380,7 +1376,7 @@
     </row>
     <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>296.18099999999998</v>
+        <v>995.15399200000002</v>
       </c>
       <c r="C50" s="1">
         <v>937.93340999999998</v>
@@ -1399,7 +1395,7 @@
     </row>
     <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>296.64401199999998</v>
+        <v>1043.01001</v>
       </c>
       <c r="C51" s="1">
         <v>928.43688999999995</v>
@@ -1418,7 +1414,7 @@
     </row>
     <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>300.47601300000002</v>
+        <v>1158.26001</v>
       </c>
       <c r="C52" s="1">
         <v>920.57928000000004</v>
@@ -1437,7 +1433,7 @@
     </row>
     <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>321.05499300000002</v>
+        <v>1146</v>
       </c>
       <c r="C53" s="1">
         <v>840.34460000000001</v>
@@ -1456,7 +1452,7 @@
     </row>
     <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>315.26599099999999</v>
+        <v>1300.339966</v>
       </c>
       <c r="C54" s="1">
         <v>865.34869000000003</v>
@@ -1475,7 +1471,7 @@
     </row>
     <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>317.44799799999998</v>
+        <v>1268.089966</v>
       </c>
       <c r="C55" s="1">
         <v>810.99341000000004</v>
@@ -1494,7 +1490,7 @@
     </row>
     <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>326.10900900000001</v>
+        <v>1158.290039</v>
       </c>
       <c r="C56" s="1">
         <v>850.99419999999998</v>
@@ -1513,7 +1509,7 @@
     </row>
     <row r="57" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>331.98998999999998</v>
+        <v>1270.469971</v>
       </c>
       <c r="C57" s="1">
         <v>877.52179000000001</v>
@@ -1532,7 +1528,7 @@
     </row>
     <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>334.35699499999998</v>
+        <v>1397.4799800000001</v>
       </c>
       <c r="C58" s="1">
         <v>813.94768999999997</v>
@@ -1551,7 +1547,7 @@
     </row>
     <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>350.04299900000001</v>
+        <v>1365.209961</v>
       </c>
       <c r="C59" s="1">
         <v>749.84978999999998</v>
@@ -1570,7 +1566,7 @@
     </row>
     <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>347.96499599999999</v>
+        <v>1292.630005</v>
       </c>
       <c r="C60" s="1">
         <v>785.12372000000005</v>
@@ -1589,7 +1585,7 @@
     </row>
     <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>369.47299199999998</v>
+        <v>1061.339966</v>
       </c>
       <c r="C61" s="1">
         <v>691.47338999999999</v>
@@ -1608,7 +1604,7 @@
     </row>
     <row r="62" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>378.44101000000001</v>
+        <v>1016.440002</v>
       </c>
       <c r="C62" s="1">
         <v>824.86297999999999</v>
@@ -1627,7 +1623,7 @@
     </row>
     <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>383.46701000000002</v>
+        <v>1028.8199460000001</v>
       </c>
       <c r="C63" s="1">
         <v>970.69788000000005</v>
@@ -1646,7 +1642,7 @@
     </row>
     <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>387.824005</v>
+        <v>1044.9499510000001</v>
       </c>
       <c r="C64" s="1">
         <v>916.64977999999996</v>
@@ -1665,7 +1661,7 @@
     </row>
     <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>350.22900399999997</v>
+        <v>1155.6800539999999</v>
       </c>
       <c r="C65" s="1">
         <v>1023.79071</v>
@@ -1684,7 +1680,7 @@
     </row>
     <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>347.13299599999999</v>
+        <v>1055.349976</v>
       </c>
       <c r="C66" s="1">
         <v>1108.11365</v>
@@ -1703,7 +1699,7 @@
     </row>
     <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>297.56698599999999</v>
+        <v>1004.169983</v>
       </c>
       <c r="C67" s="1">
         <v>1061.5815399999999</v>
@@ -1722,7 +1718,7 @@
     </row>
     <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>313.80200200000002</v>
+        <v>987.47699</v>
       </c>
       <c r="C68" s="1">
         <v>1168.30945</v>
@@ -1741,7 +1737,7 @@
     </row>
     <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>333.51901199999998</v>
+        <v>1063.219971</v>
       </c>
       <c r="C69" s="1">
         <v>1228.4427499999999</v>
@@ -1760,7 +1756,7 @@
     </row>
     <row r="70" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>329.635986</v>
+        <v>1052.6999510000001</v>
       </c>
       <c r="C70" s="1">
         <v>1107.6357399999999</v>
@@ -1779,7 +1775,7 @@
     </row>
     <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>296.16900600000002</v>
+        <v>1055.75</v>
       </c>
       <c r="C71" s="1">
         <v>1048.6379400000001</v>
@@ -1798,7 +1794,7 @@
     </row>
     <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>294.06399499999998</v>
+        <v>1111.780029</v>
       </c>
       <c r="C72" s="1">
         <v>1045.21252</v>
@@ -1817,7 +1813,7 @@
     </row>
     <row r="73" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>289.74499500000002</v>
+        <v>1246.6999510000001</v>
       </c>
       <c r="C73" s="1">
         <v>1061.41833</v>
@@ -1836,7 +1832,7 @@
     </row>
     <row r="74" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>294.63000499999998</v>
+        <v>1184.130005</v>
       </c>
       <c r="C74" s="1">
         <v>984.46320000000003</v>
@@ -1855,7 +1851,7 @@
     </row>
     <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>291.12200899999999</v>
+        <v>1071.089966</v>
       </c>
       <c r="C75" s="1">
         <v>1001.34692</v>
@@ -1874,7 +1870,7 @@
     </row>
     <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>276.58700599999997</v>
+        <v>1119.369995</v>
       </c>
       <c r="C76" s="1">
         <v>1051.39246</v>
@@ -1893,7 +1889,7 @@
     </row>
     <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>215.22099299999999</v>
+        <v>1035.7700199999999</v>
       </c>
       <c r="C77" s="1">
         <v>1150.7586699999999</v>
@@ -1912,7 +1908,7 @@
     </row>
     <row r="78" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>250.86599699999999</v>
+        <v>919.21099900000002</v>
       </c>
       <c r="C78" s="1">
         <v>1039.99512</v>
@@ -1931,7 +1927,7 @@
     </row>
     <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>245.84899899999999</v>
+        <v>964.66699200000005</v>
       </c>
       <c r="C79" s="1">
         <v>1017.71051</v>
@@ -1950,7 +1946,7 @@
     </row>
     <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>252.22700499999999</v>
+        <v>834.95800799999995</v>
       </c>
       <c r="C80" s="1">
         <v>1024.7921100000001</v>
@@ -1969,7 +1965,7 @@
     </row>
     <row r="81" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>293.65600599999999</v>
+        <v>707.73699999999997</v>
       </c>
       <c r="C81" s="1">
         <v>1064.74414</v>
@@ -1988,7 +1984,7 @@
     </row>
     <row r="82" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>282.01501500000001</v>
+        <v>790.42797900000005</v>
       </c>
       <c r="C82" s="1">
         <v>1277.58862</v>
@@ -2007,7 +2003,7 @@
     </row>
     <row r="83" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>283.26299999999998</v>
+        <v>755.84301800000003</v>
       </c>
       <c r="C83" s="1">
         <v>1358.80225</v>
@@ -2026,7 +2022,7 @@
     </row>
     <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>258.114014</v>
+        <v>818.47997999999995</v>
       </c>
       <c r="C84" s="1">
         <v>1384.44019</v>
@@ -2045,7 +2041,7 @@
     </row>
     <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>264.59899899999999</v>
+        <v>882.46698000000004</v>
       </c>
       <c r="C85" s="1">
         <v>1258.8481400000001</v>
@@ -2064,7 +2060,7 @@
     </row>
     <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>286.21398900000003</v>
+        <v>859.28802499999995</v>
       </c>
       <c r="C86" s="1">
         <v>1136.8531499999999</v>
@@ -2083,7 +2079,7 @@
     </row>
     <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>282.21798699999999</v>
+        <v>817.50799600000005</v>
       </c>
       <c r="C87" s="1">
         <v>1248.2978499999999</v>
@@ -2102,7 +2098,7 @@
     </row>
     <row r="88" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>292.34600799999998</v>
+        <v>869.29303000000004</v>
       </c>
       <c r="C88" s="1">
         <v>1286.79358</v>
@@ -2121,7 +2117,7 @@
     </row>
     <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>287.01998900000001</v>
+        <v>844.27899200000002</v>
       </c>
       <c r="C89" s="1">
         <v>1133.52539</v>
@@ -2140,7 +2136,7 @@
     </row>
     <row r="90" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>306.47100799999998</v>
+        <v>923.728027</v>
       </c>
       <c r="C90" s="1">
         <v>1115.3634</v>
@@ -2159,7 +2155,7 @@
     </row>
     <row r="91" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>299.11999500000002</v>
+        <v>934.78601100000003</v>
       </c>
       <c r="C91" s="1">
         <v>1004.38568</v>
@@ -2178,7 +2174,7 @@
     </row>
     <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>291.47699</v>
+        <v>944.74798599999997</v>
       </c>
       <c r="C92" s="1">
         <v>969.05280000000005</v>
@@ -2197,7 +2193,7 @@
     </row>
     <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>301.54699699999998</v>
+        <v>973.34899900000005</v>
       </c>
       <c r="C93" s="1">
         <v>948.57470999999998</v>
@@ -2216,7 +2212,7 @@
     </row>
     <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>302.48199499999998</v>
+        <v>921.66803000000004</v>
       </c>
       <c r="C94" s="1">
         <v>938.61541999999997</v>
@@ -2235,7 +2231,7 @@
     </row>
     <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>297.483002</v>
+        <v>943.56701699999996</v>
       </c>
       <c r="C95" s="1">
         <v>861.68499999999995</v>
@@ -2254,7 +2250,7 @@
     </row>
     <row r="96" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>292.75399800000002</v>
+        <v>894.13500999999997</v>
       </c>
       <c r="C96" s="1">
         <v>755.40941999999995</v>
@@ -2273,7 +2269,7 @@
     </row>
     <row r="97" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>292.77301</v>
+        <v>849.262024</v>
       </c>
       <c r="C97" s="1">
         <v>740.55811000000006</v>
@@ -2292,7 +2288,7 @@
     </row>
     <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>295.15499899999998</v>
+        <v>811.58502199999998</v>
       </c>
       <c r="C98" s="1">
         <v>701.51782000000003</v>
@@ -2311,7 +2307,7 @@
     </row>
     <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>308.891998</v>
+        <v>861.59301800000003</v>
       </c>
       <c r="C99" s="1">
         <v>740.94659000000001</v>
@@ -2330,7 +2326,7 @@
     </row>
     <row r="100" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>311.05898999999999</v>
+        <v>839.45898399999999</v>
       </c>
       <c r="C100" s="1">
         <v>719.35906999999997</v>
@@ -2349,7 +2345,7 @@
     </row>
     <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>308.66699199999999</v>
+        <v>845.27801499999998</v>
       </c>
       <c r="C101" s="1">
         <v>740.03899999999999</v>
@@ -2368,7 +2364,7 @@
     </row>
     <row r="102" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>297.60101300000002</v>
+        <v>870.36499000000003</v>
       </c>
       <c r="C102" s="1">
         <v>752.35107000000005</v>
@@ -2387,7 +2383,7 @@
     </row>
     <row r="103" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>301.18099999999998</v>
+        <v>877.93402100000003</v>
       </c>
       <c r="C103" s="1">
         <v>722.26757999999995</v>
@@ -2406,7 +2402,7 @@
     </row>
     <row r="104" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>303.49798600000003</v>
+        <v>856.012024</v>
       </c>
       <c r="C104" s="1">
         <v>691.15521000000001</v>
@@ -2425,7 +2421,7 @@
     </row>
     <row r="105" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>304.07900999999998</v>
+        <v>871.76397699999995</v>
       </c>
       <c r="C105" s="1">
         <v>703.18200999999999</v>
@@ -2444,7 +2440,7 @@
     </row>
     <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>338.85199</v>
+        <v>856.71099900000002</v>
       </c>
       <c r="C106" s="1">
         <v>675.29669000000001</v>
@@ -2463,7 +2459,7 @@
     </row>
     <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>339.52899200000002</v>
+        <v>856.18597399999999</v>
       </c>
       <c r="C107" s="1">
         <v>789.29181000000005</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>336.71099900000002</v>
+        <v>866.84600799999998</v>
       </c>
       <c r="C108" s="1">
         <v>798.04327000000001</v>
@@ -2501,7 +2497,7 @@
     </row>
     <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>333.48400900000001</v>
+        <v>853.81701699999996</v>
       </c>
       <c r="C109" s="1">
         <v>818.23828000000003</v>
@@ -2520,7 +2516,7 @@
     </row>
     <row r="110" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>316.94400000000002</v>
+        <v>816.27099599999997</v>
       </c>
       <c r="C110" s="1">
         <v>786.13300000000004</v>
@@ -2539,7 +2535,7 @@
     </row>
     <row r="111" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>314.53799400000003</v>
+        <v>752.57000700000003</v>
       </c>
       <c r="C111" s="1">
         <v>713.14008000000001</v>
@@ -2558,7 +2554,7 @@
     </row>
     <row r="112" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>308.04599000000002</v>
+        <v>702.19702099999995</v>
       </c>
       <c r="C112" s="1">
         <v>691.89648</v>
@@ -2577,7 +2573,7 @@
     </row>
     <row r="113" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>303.57199100000003</v>
+        <v>730.15997300000004</v>
       </c>
       <c r="C113" s="1">
         <v>683.48461999999995</v>
@@ -2596,7 +2592,7 @@
     </row>
     <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>300.54901100000001</v>
+        <v>685.31201199999998</v>
       </c>
       <c r="C114" s="1">
         <v>694.54633000000001</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>295.09600799999998</v>
+        <v>724.40600600000005</v>
       </c>
       <c r="C115" s="1">
         <v>698.77319</v>
@@ -2634,7 +2630,7 @@
     </row>
     <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>287.11999500000002</v>
+        <v>698.15301499999998</v>
       </c>
       <c r="C116" s="1">
         <v>659.57677999999999</v>
@@ -2653,7 +2649,7 @@
     </row>
     <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>298.43701199999998</v>
+        <v>691.21899399999995</v>
       </c>
       <c r="C117" s="1">
         <v>511.15411</v>
@@ -2672,7 +2668,7 @@
     </row>
     <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>298.02200299999998</v>
+        <v>614.83898899999997</v>
       </c>
       <c r="C118" s="1">
         <v>437.01709</v>
@@ -2691,7 +2687,7 @@
     </row>
     <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>296.50799599999999</v>
+        <v>611.77801499999998</v>
       </c>
       <c r="C119" s="1">
         <v>474.78271000000001</v>
@@ -2710,7 +2706,7 @@
     </row>
     <row r="120" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>297.915009</v>
+        <v>601.67797900000005</v>
       </c>
       <c r="C120" s="1">
         <v>451.68099999999998</v>
@@ -2729,7 +2725,7 @@
     </row>
     <row r="121" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>296.381012</v>
+        <v>551.64001499999995</v>
       </c>
       <c r="C121" s="1">
         <v>421.76150999999999</v>
@@ -2748,7 +2744,7 @@
     </row>
     <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>304.78201300000001</v>
+        <v>546.62597700000003</v>
       </c>
       <c r="C122" s="1">
         <v>418.66289999999998</v>
@@ -2767,7 +2763,7 @@
     </row>
     <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>307.37799100000001</v>
+        <v>556.72198500000002</v>
       </c>
       <c r="C123" s="1">
         <v>453.35861</v>
@@ -2786,7 +2782,7 @@
     </row>
     <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>305.76199300000002</v>
+        <v>559.09997599999997</v>
       </c>
       <c r="C124" s="1">
         <v>466.25448999999998</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>290.72500600000001</v>
+        <v>562.103027</v>
       </c>
       <c r="C125" s="1">
         <v>461.75729000000001</v>
@@ -2824,7 +2820,7 @@
     </row>
     <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>288.49700899999999</v>
+        <v>539.864014</v>
       </c>
       <c r="C126" s="1">
         <v>457.59811000000002</v>
@@ -2843,7 +2839,7 @@
     </row>
     <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>305.48098800000002</v>
+        <v>542.57202099999995</v>
       </c>
       <c r="C127" s="1">
         <v>461.72491000000002</v>
@@ -2862,7 +2858,7 @@
     </row>
     <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>300.03698700000001</v>
+        <v>522.70300299999997</v>
       </c>
       <c r="C128" s="1">
         <v>434.56851</v>
@@ -2881,7 +2877,7 @@
     </row>
     <row r="129" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>296.42700200000002</v>
+        <v>524.28698699999995</v>
       </c>
       <c r="C129" s="1">
         <v>426.47780999999998</v>
@@ -2900,7 +2896,7 @@
     </row>
     <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>298.567993</v>
+        <v>489.58999599999999</v>
       </c>
       <c r="C130" s="1">
         <v>465.81470000000002</v>
@@ -2919,7 +2915,7 @@
     </row>
     <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>294.27099600000003</v>
+        <v>450.29098499999998</v>
       </c>
       <c r="C131" s="1">
         <v>474.80779999999999</v>
@@ -2938,7 +2934,7 @@
     </row>
     <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>308.64498900000001</v>
+        <v>448.07501200000002</v>
       </c>
       <c r="C132" s="1">
         <v>470.24898999999999</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="133" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>320.67099000000002</v>
+        <v>385.90499899999998</v>
       </c>
       <c r="C133" s="1">
         <v>464.34021000000001</v>
@@ -2976,7 +2972,7 @@
     </row>
     <row r="134" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>298.58599900000002</v>
+        <v>395.00399800000002</v>
       </c>
       <c r="C134" s="1">
         <v>470.01378999999997</v>
@@ -2995,7 +2991,7 @@
     </row>
     <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>314.69000199999999</v>
+        <v>397.25399800000002</v>
       </c>
       <c r="C135" s="1">
         <v>411.14890000000003</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>307.02499399999999</v>
+        <v>379.699005</v>
       </c>
       <c r="C136" s="1">
         <v>381.30160999999998</v>
@@ -3033,7 +3029,7 @@
     </row>
     <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>316.76299999999998</v>
+        <v>387.31201199999998</v>
       </c>
       <c r="C137" s="1">
         <v>360.32238999999998</v>
@@ -3052,7 +3048,7 @@
     </row>
     <row r="138" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>337.96398900000003</v>
+        <v>416.48498499999999</v>
       </c>
       <c r="C138" s="1">
         <v>368.08199999999999</v>
@@ -3071,7 +3067,7 @@
     </row>
     <row r="139" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>333.442993</v>
+        <v>379.94699100000003</v>
       </c>
       <c r="C139" s="1">
         <v>354.64670000000001</v>
@@ -3090,7 +3086,7 @@
     </row>
     <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>330.16699199999999</v>
+        <v>382.73098800000002</v>
       </c>
       <c r="C140" s="1">
         <v>345.82501000000002</v>
@@ -3109,7 +3105,7 @@
     </row>
     <row r="141" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>331.98001099999999</v>
+        <v>370.38000499999998</v>
       </c>
       <c r="C141" s="1">
         <v>331.23090000000002</v>
@@ -3128,7 +3124,7 @@
     </row>
     <row r="142" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>347.40100100000001</v>
+        <v>385.74301100000002</v>
       </c>
       <c r="C142" s="1">
         <v>330.29770000000002</v>
@@ -3147,7 +3143,7 @@
     </row>
     <row r="143" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>354.09399400000001</v>
+        <v>400.85699499999998</v>
       </c>
       <c r="C143" s="1">
         <v>330.77661000000001</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="144" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>367.442993</v>
+        <v>399.41101099999997</v>
       </c>
       <c r="C144" s="1">
         <v>335.50760000000002</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>360.31201199999998</v>
+        <v>415.02398699999998</v>
       </c>
       <c r="C145" s="1">
         <v>315.05068999999997</v>
@@ -3204,7 +3200,7 @@
     </row>
     <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>381.43899499999998</v>
+        <v>430.16101099999997</v>
       </c>
       <c r="C146" s="1">
         <v>306.97491000000002</v>
@@ -3223,7 +3219,7 @@
     </row>
     <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>412.50100700000002</v>
+        <v>493.16000400000001</v>
       </c>
       <c r="C147" s="1">
         <v>312.95589999999999</v>
@@ -3242,7 +3238,7 @@
     </row>
     <row r="148" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>475.675995</v>
+        <v>492.57998700000002</v>
       </c>
       <c r="C148" s="1">
         <v>296.6832</v>
@@ -3261,7 +3257,7 @@
     </row>
     <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>465.97399899999999</v>
+        <v>502.88000499999998</v>
       </c>
       <c r="C149" s="1">
         <v>319.05649</v>
@@ -3280,7 +3276,7 @@
     </row>
     <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>471.53100599999999</v>
+        <v>532.07397500000002</v>
       </c>
       <c r="C150" s="1">
         <v>307.54268999999999</v>
@@ -3299,7 +3295,7 @@
     </row>
     <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>480.51800500000002</v>
+        <v>511.14498900000001</v>
       </c>
       <c r="C151" s="1">
         <v>291.58920000000001</v>
@@ -3318,7 +3314,7 @@
     </row>
     <row r="152" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>473.28100599999999</v>
+        <v>503.30898999999999</v>
       </c>
       <c r="C152" s="1">
         <v>298.27951000000002</v>
@@ -3337,7 +3333,7 @@
     </row>
     <row r="153" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>431.21499599999999</v>
+        <v>524.03802499999995</v>
       </c>
       <c r="C153" s="1">
         <v>295.98340000000002</v>
@@ -3356,7 +3352,7 @@
     </row>
     <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>445.20901500000002</v>
+        <v>567.989014</v>
       </c>
       <c r="C154" s="1">
         <v>300.15359000000001</v>
@@ -3375,7 +3371,7 @@
     </row>
     <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>466.85101300000002</v>
+        <v>616.00402799999995</v>
       </c>
       <c r="C155" s="1">
         <v>303.26790999999997</v>
@@ -3394,7 +3390,7 @@
     </row>
     <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>463.70498700000002</v>
+        <v>606.11901899999998</v>
       </c>
       <c r="C156" s="1">
         <v>285.93090999999998</v>
@@ -3413,7 +3409,7 @@
     </row>
     <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>466.05398600000001</v>
+        <v>621.19897500000002</v>
       </c>
       <c r="C157" s="1">
         <v>291.11331000000001</v>
@@ -3432,7 +3428,7 @@
     </row>
     <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>470.29400600000002</v>
+        <v>643.39801</v>
       </c>
       <c r="C158" s="1">
         <v>303.86959999999999</v>
@@ -3451,7 +3447,7 @@
     </row>
     <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>462.60400399999997</v>
+        <v>707.06201199999998</v>
       </c>
       <c r="C159" s="1">
         <v>306.84021000000001</v>
@@ -3470,7 +3466,7 @@
     </row>
     <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>426.368988</v>
+        <v>618.078979</v>
       </c>
       <c r="C160" s="1">
         <v>303.70889</v>
@@ -3489,7 +3485,7 @@
     </row>
     <row r="161" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>434.989014</v>
+        <v>662.10900900000001</v>
       </c>
       <c r="C161" s="1">
         <v>294.04520000000002</v>
@@ -3508,7 +3504,7 @@
     </row>
     <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>457.34399400000001</v>
+        <v>644.64599599999997</v>
       </c>
       <c r="C162" s="1">
         <v>296.8793</v>
@@ -3527,7 +3523,7 @@
     </row>
     <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>472.78900099999998</v>
+        <v>683.91198699999995</v>
       </c>
       <c r="C163" s="1">
         <v>295.90249999999997</v>
@@ -3546,7 +3542,7 @@
     </row>
     <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>440.358002</v>
+        <v>689.760986</v>
       </c>
       <c r="C164" s="1">
         <v>296.40078999999997</v>
@@ -3565,7 +3561,7 @@
     </row>
     <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>522.28601100000003</v>
+        <v>670.46301300000005</v>
       </c>
       <c r="C165" s="1">
         <v>296.71381000000002</v>
@@ -3584,7 +3580,7 @@
     </row>
     <row r="166" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>644.90600600000005</v>
+        <v>674.07501200000002</v>
       </c>
       <c r="C166" s="1">
         <v>284.88839999999999</v>
@@ -3603,7 +3599,7 @@
     </row>
     <row r="167" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>700.59399399999995</v>
+        <v>686.591003</v>
       </c>
       <c r="C167" s="1">
         <v>293.80569000000003</v>
@@ -3622,7 +3618,7 @@
     </row>
     <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>696.37597700000003</v>
+        <v>776.77502400000003</v>
       </c>
       <c r="C168" s="1">
         <v>300.2337</v>
@@ -3641,7 +3637,7 @@
     </row>
     <row r="169" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>686.19201699999996</v>
+        <v>784.58300799999995</v>
       </c>
       <c r="C169" s="2">
         <v>302.5849</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="170" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>696.23699999999997</v>
+        <v>816.08801300000005</v>
       </c>
       <c r="F170" s="7">
         <v>43086</v>
@@ -3676,7 +3672,7 @@
     </row>
     <row r="171" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>721.73199499999998</v>
+        <v>793.33898899999997</v>
       </c>
       <c r="F171" s="7">
         <v>43087</v>
@@ -3692,7 +3688,7 @@
     </row>
     <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>793.90100099999995</v>
+        <v>755.00897199999997</v>
       </c>
       <c r="F172" s="7">
         <v>43088</v>
@@ -3708,7 +3704,7 @@
     </row>
     <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>827.51599099999999</v>
+        <v>752.90197799999999</v>
       </c>
       <c r="F173" s="7">
         <v>43089</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>820.23602300000005</v>
+        <v>752.578979</v>
       </c>
       <c r="F174" s="7">
         <v>43090</v>
@@ -3740,7 +3736,7 @@
     </row>
     <row r="175" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>822.64300500000002</v>
+        <v>727.01300000000003</v>
       </c>
       <c r="F175" s="7">
         <v>43091</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>681.31597899999997</v>
+        <v>679.87701400000003</v>
       </c>
       <c r="F176" s="7">
         <v>43092</v>
@@ -3772,7 +3768,7 @@
     </row>
     <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>721.76898200000005</v>
+        <v>687.17498799999998</v>
       </c>
       <c r="F177" s="7">
         <v>43093</v>
@@ -3788,7 +3784,7 @@
     </row>
     <row r="178" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>698.86999500000002</v>
+        <v>732.73297100000002</v>
       </c>
       <c r="F178" s="7">
         <v>43094</v>
@@ -3804,7 +3800,7 @@
     </row>
     <row r="179" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>763.36999500000002</v>
+        <v>731.14300500000002</v>
       </c>
       <c r="F179" s="7">
         <v>43095</v>
@@ -3820,7 +3816,7 @@
     </row>
     <row r="180" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>774.96997099999999</v>
+        <v>708.08697500000005</v>
       </c>
       <c r="F180" s="7">
         <v>43096</v>
@@ -3836,7 +3832,7 @@
     </row>
     <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>762.20800799999995</v>
+        <v>708.71801800000003</v>
       </c>
       <c r="F181" s="7">
         <v>43097</v>
@@ -3852,7 +3848,7 @@
     </row>
     <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>740.38897699999995</v>
+        <v>672.10199</v>
       </c>
       <c r="F182" s="7">
         <v>43098</v>
@@ -3868,7 +3864,7 @@
     </row>
     <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>753.81500200000005</v>
+        <v>695.07202099999995</v>
       </c>
       <c r="F183" s="7">
         <v>43099</v>
@@ -3884,7 +3880,7 @@
     </row>
     <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>712.21197500000005</v>
+        <v>697.92297399999995</v>
       </c>
       <c r="F184" s="7">
         <v>43100</v>
@@ -3900,7 +3896,7 @@
     </row>
     <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>755.75701900000001</v>
+        <v>717.192993</v>
       </c>
       <c r="F185" s="7">
         <v>43101</v>
@@ -3916,7 +3912,7 @@
     </row>
     <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>772.34600799999998</v>
+        <v>700.17797900000005</v>
       </c>
       <c r="F186" s="7">
         <v>43102</v>
@@ -3932,7 +3928,7 @@
     </row>
     <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>886</v>
+        <v>646.669983</v>
       </c>
       <c r="F187" s="7">
         <v>43103</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="188" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>961.71301300000005</v>
+        <v>584.53601100000003</v>
       </c>
       <c r="F188" s="7">
         <v>43104</v>
@@ -3964,7 +3960,7 @@
     </row>
     <row r="189" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>975.75</v>
+        <v>602.14001499999995</v>
       </c>
       <c r="F189" s="7">
         <v>43105</v>
@@ -3980,7 +3976,7 @@
     </row>
     <row r="190" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>995.15399200000002</v>
+        <v>587.42602499999998</v>
       </c>
       <c r="F190" s="7">
         <v>43106</v>
@@ -3996,7 +3992,7 @@
     </row>
     <row r="191" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1043.01001</v>
+        <v>588.52002000000005</v>
       </c>
       <c r="F191" s="7">
         <v>43107</v>
@@ -4012,7 +4008,7 @@
     </row>
     <row r="192" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1158.26001</v>
+        <v>573.044983</v>
       </c>
       <c r="F192" s="7">
         <v>43108</v>
@@ -4028,7 +4024,7 @@
     </row>
     <row r="193" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1146</v>
+        <v>516.14801</v>
       </c>
       <c r="F193" s="7">
         <v>43109</v>
@@ -4044,7 +4040,7 @@
     </row>
     <row r="194" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1300.339966</v>
+        <v>566.830017</v>
       </c>
       <c r="F194" s="7">
         <v>43110</v>
@@ -4060,7 +4056,7 @@
     </row>
     <row r="195" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1268.089966</v>
+        <v>558.49700900000005</v>
       </c>
       <c r="F195" s="7">
         <v>43111</v>
@@ -4076,7 +4072,7 @@
     </row>
     <row r="196" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1158.290039</v>
+        <v>578.67199700000003</v>
       </c>
       <c r="F196" s="7">
         <v>43112</v>
@@ -4092,7 +4088,7 @@
     </row>
     <row r="197" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1270.469971</v>
+        <v>580.42901600000005</v>
       </c>
       <c r="F197" s="7">
         <v>43113</v>
@@ -4108,7 +4104,7 @@
     </row>
     <row r="198" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1397.4799800000001</v>
+        <v>591.25897199999997</v>
       </c>
       <c r="F198" s="7">
         <v>43114</v>
@@ -4124,7 +4120,7 @@
     </row>
     <row r="199" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1365.209961</v>
+        <v>619.43701199999998</v>
       </c>
       <c r="F199" s="7">
         <v>43115</v>
@@ -4140,7 +4136,7 @@
     </row>
     <row r="200" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1292.630005</v>
+        <v>593.40600600000005</v>
       </c>
       <c r="F200" s="7">
         <v>43116</v>
@@ -4156,7 +4152,7 @@
     </row>
     <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1061.339966</v>
+        <v>610.262024</v>
       </c>
       <c r="F201" s="7">
         <v>43117</v>
@@ -4172,7 +4168,7 @@
     </row>
     <row r="202" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1016.440002</v>
+        <v>607.68701199999998</v>
       </c>
       <c r="F202" s="7">
         <v>43118</v>
@@ -4188,7 +4184,7 @@
     </row>
     <row r="203" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1028.8199460000001</v>
+        <v>605.442993</v>
       </c>
       <c r="F203" s="7">
         <v>43119</v>
@@ -4204,7 +4200,7 @@
     </row>
     <row r="204" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1044.9499510000001</v>
+        <v>600.90502900000001</v>
       </c>
       <c r="F204" s="7">
         <v>43120</v>
@@ -4220,7 +4216,7 @@
     </row>
     <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1155.6800539999999</v>
+        <v>594.34497099999999</v>
       </c>
       <c r="F205" s="7">
         <v>43121</v>
@@ -4236,7 +4232,7 @@
     </row>
     <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1055.349976</v>
+        <v>524.85699499999998</v>
       </c>
       <c r="F206" s="7">
         <v>43122</v>
@@ -4252,7 +4248,7 @@
     </row>
     <row r="207" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1004.169983</v>
+        <v>532.71002199999998</v>
       </c>
       <c r="F207" s="7">
         <v>43123</v>
@@ -4268,7 +4264,7 @@
     </row>
     <row r="208" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>987.47699</v>
+        <v>498.01800500000002</v>
       </c>
       <c r="F208" s="7">
         <v>43124</v>
@@ -4284,7 +4280,7 @@
     </row>
     <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>1063.219971</v>
+        <v>478.381012</v>
       </c>
       <c r="F209" s="7">
         <v>43125</v>
@@ -4300,7 +4296,7 @@
     </row>
     <row r="210" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>1052.6999510000001</v>
+        <v>520.47997999999995</v>
       </c>
       <c r="F210" s="7">
         <v>43126</v>
@@ -4316,7 +4312,7 @@
     </row>
     <row r="211" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>1055.75</v>
+        <v>490.41400099999998</v>
       </c>
       <c r="F211" s="7">
         <v>43127</v>
@@ -4332,7 +4328,7 @@
     </row>
     <row r="212" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>1111.780029</v>
+        <v>499.459991</v>
       </c>
       <c r="F212" s="7">
         <v>43128</v>
@@ -4348,7 +4344,7 @@
     </row>
     <row r="213" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>1246.6999510000001</v>
+        <v>499.38299599999999</v>
       </c>
       <c r="F213" s="7">
         <v>43129</v>
@@ -4364,7 +4360,7 @@
     </row>
     <row r="214" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>1184.130005</v>
+        <v>519.02301</v>
       </c>
       <c r="F214" s="7">
         <v>43130</v>
@@ -4380,7 +4376,7 @@
     </row>
     <row r="215" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>1071.089966</v>
+        <v>538.50598100000002</v>
       </c>
       <c r="F215" s="7">
         <v>43131</v>
@@ -4396,7 +4392,7 @@
     </row>
     <row r="216" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>1119.369995</v>
+        <v>536.44702099999995</v>
       </c>
       <c r="F216" s="7">
         <v>43132</v>
@@ -4412,7 +4408,7 @@
     </row>
     <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>1035.7700199999999</v>
+        <v>527.19397000000004</v>
       </c>
       <c r="F217" s="7">
         <v>43133</v>
@@ -4428,7 +4424,7 @@
     </row>
     <row r="218" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>919.21099900000002</v>
+        <v>466.27398699999998</v>
       </c>
       <c r="F218" s="7">
         <v>43134</v>
@@ -4444,7 +4440,7 @@
     </row>
     <row r="219" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>964.66699200000005</v>
+        <v>474.76800500000002</v>
       </c>
       <c r="F219" s="7">
         <v>43135</v>
@@ -4460,7 +4456,7 @@
     </row>
     <row r="220" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>834.95800799999995</v>
+        <v>455.93600500000002</v>
       </c>
       <c r="F220" s="7">
         <v>43136</v>
@@ -4476,7 +4472,7 @@
     </row>
     <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>707.73699999999997</v>
+        <v>460.733002</v>
       </c>
       <c r="F221" s="7">
         <v>43137</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="222" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>790.42797900000005</v>
+        <v>432.243988</v>
       </c>
       <c r="F222" s="7">
         <v>43138</v>
@@ -4508,7 +4504,7 @@
     </row>
     <row r="223" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>755.84301800000003</v>
+        <v>442.290009</v>
       </c>
       <c r="F223" s="7">
         <v>43139</v>
@@ -4524,7 +4520,7 @@
     </row>
     <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>818.47997999999995</v>
+        <v>422.58700599999997</v>
       </c>
       <c r="F224" s="7">
         <v>43140</v>
@@ -4539,9 +4535,7 @@
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A225" s="3">
-        <v>882.46698000000004</v>
-      </c>
+      <c r="A225" s="3"/>
       <c r="F225" s="7">
         <v>43141</v>
       </c>
@@ -4555,9 +4549,7 @@
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A226" s="3">
-        <v>859.28802499999995</v>
-      </c>
+      <c r="A226" s="3"/>
       <c r="F226" s="7">
         <v>43142</v>
       </c>
@@ -4571,9 +4563,6 @@
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A227" s="3">
-        <v>817.50799600000005</v>
-      </c>
       <c r="F227" s="7">
         <v>43143</v>
       </c>
@@ -4587,9 +4576,6 @@
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A228" s="3">
-        <v>869.29303000000004</v>
-      </c>
       <c r="F228" s="7">
         <v>43144</v>
       </c>
@@ -4603,9 +4589,6 @@
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A229" s="3">
-        <v>844.27899200000002</v>
-      </c>
       <c r="F229" s="7">
         <v>43145</v>
       </c>
@@ -4619,9 +4602,6 @@
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A230" s="3">
-        <v>923.728027</v>
-      </c>
       <c r="F230" s="7">
         <v>43146</v>
       </c>
@@ -4635,9 +4615,6 @@
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A231" s="3">
-        <v>934.78601100000003</v>
-      </c>
       <c r="F231" s="7">
         <v>43147</v>
       </c>
@@ -4651,9 +4628,6 @@
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A232" s="3">
-        <v>944.74798599999997</v>
-      </c>
       <c r="F232" s="7">
         <v>43148</v>
       </c>
@@ -4667,9 +4641,6 @@
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A233" s="3">
-        <v>973.34899900000005</v>
-      </c>
       <c r="F233" s="7">
         <v>43149</v>
       </c>
@@ -4683,9 +4654,6 @@
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A234" s="3">
-        <v>921.66803000000004</v>
-      </c>
       <c r="F234" s="7">
         <v>43150</v>
       </c>
@@ -4699,9 +4667,6 @@
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A235" s="3">
-        <v>943.56701699999996</v>
-      </c>
       <c r="F235" s="7">
         <v>43151</v>
       </c>
@@ -4715,9 +4680,6 @@
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A236" s="3">
-        <v>894.13500999999997</v>
-      </c>
       <c r="F236" s="7">
         <v>43152</v>
       </c>
@@ -4731,9 +4693,6 @@
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A237" s="3">
-        <v>849.262024</v>
-      </c>
       <c r="F237" s="7">
         <v>43153</v>
       </c>
@@ -4747,9 +4706,6 @@
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A238" s="3">
-        <v>811.58502199999998</v>
-      </c>
       <c r="F238" s="7">
         <v>43154</v>
       </c>
@@ -4763,9 +4719,6 @@
       <c r="L238" s="5"/>
     </row>
     <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A239" s="3">
-        <v>861.59301800000003</v>
-      </c>
       <c r="F239" s="7">
         <v>43155</v>
       </c>
@@ -4779,9 +4732,6 @@
       <c r="L239" s="5"/>
     </row>
     <row r="240" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A240" s="3">
-        <v>839.45898399999999</v>
-      </c>
       <c r="F240" s="7">
         <v>43156</v>
       </c>
@@ -4794,10 +4744,7 @@
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
     </row>
-    <row r="241" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
-        <v>845.27801499999998</v>
-      </c>
+    <row r="241" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F241" s="7">
         <v>43157</v>
       </c>
@@ -4810,10 +4757,7 @@
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
     </row>
-    <row r="242" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A242" s="3">
-        <v>870.36499000000003</v>
-      </c>
+    <row r="242" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F242" s="7">
         <v>43158</v>
       </c>
@@ -4826,10 +4770,7 @@
       <c r="K242" s="5"/>
       <c r="L242" s="5"/>
     </row>
-    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A243" s="3">
-        <v>877.93402100000003</v>
-      </c>
+    <row r="243" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F243" s="7">
         <v>43159</v>
       </c>
@@ -4842,10 +4783,7 @@
       <c r="K243" s="5"/>
       <c r="L243" s="5"/>
     </row>
-    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A244" s="3">
-        <v>856.012024</v>
-      </c>
+    <row r="244" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F244" s="7">
         <v>43160</v>
       </c>
@@ -4858,10 +4796,7 @@
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
     </row>
-    <row r="245" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A245" s="3">
-        <v>871.76397699999995</v>
-      </c>
+    <row r="245" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F245" s="7">
         <v>43161</v>
       </c>
@@ -4874,10 +4809,7 @@
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
     </row>
-    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A246" s="3">
-        <v>856.71099900000002</v>
-      </c>
+    <row r="246" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F246" s="7">
         <v>43162</v>
       </c>
@@ -4890,10 +4822,7 @@
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
     </row>
-    <row r="247" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A247" s="3">
-        <v>856.18597399999999</v>
-      </c>
+    <row r="247" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F247" s="7">
         <v>43163</v>
       </c>
@@ -4906,10 +4835,7 @@
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
     </row>
-    <row r="248" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A248" s="3">
-        <v>866.84600799999998</v>
-      </c>
+    <row r="248" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F248" s="7">
         <v>43164</v>
       </c>
@@ -4922,10 +4848,7 @@
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
     </row>
-    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A249" s="3">
-        <v>853.81701699999996</v>
-      </c>
+    <row r="249" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F249" s="7">
         <v>43165</v>
       </c>
@@ -4938,10 +4861,7 @@
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
     </row>
-    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A250" s="3">
-        <v>816.27099599999997</v>
-      </c>
+    <row r="250" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F250" s="7">
         <v>43166</v>
       </c>
@@ -4954,10 +4874,7 @@
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
     </row>
-    <row r="251" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A251" s="3">
-        <v>752.57000700000003</v>
-      </c>
+    <row r="251" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F251" s="7">
         <v>43167</v>
       </c>
@@ -4970,10 +4887,7 @@
       <c r="K251" s="5"/>
       <c r="L251" s="5"/>
     </row>
-    <row r="252" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A252" s="3">
-        <v>702.19702099999995</v>
-      </c>
+    <row r="252" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F252" s="7">
         <v>43168</v>
       </c>
@@ -4986,10 +4900,7 @@
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A253" s="3">
-        <v>730.15997300000004</v>
-      </c>
+    <row r="253" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F253" s="7">
         <v>43169</v>
       </c>
@@ -5002,10 +4913,7 @@
       <c r="K253" s="5"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A254" s="3">
-        <v>685.31201199999998</v>
-      </c>
+    <row r="254" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F254" s="7">
         <v>43170</v>
       </c>
@@ -5018,10 +4926,7 @@
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A255" s="3">
-        <v>724.40600600000005</v>
-      </c>
+    <row r="255" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F255" s="7">
         <v>43171</v>
       </c>
@@ -5034,10 +4939,7 @@
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A256" s="3">
-        <v>698.15301499999998</v>
-      </c>
+    <row r="256" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F256" s="7">
         <v>43172</v>
       </c>
@@ -5050,10 +4952,7 @@
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A257" s="3">
-        <v>691.21899399999995</v>
-      </c>
+    <row r="257" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F257" s="7">
         <v>43173</v>
       </c>
@@ -5066,10 +4965,7 @@
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A258" s="3">
-        <v>614.83898899999997</v>
-      </c>
+    <row r="258" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F258" s="7">
         <v>43174</v>
       </c>
@@ -5082,10 +4978,7 @@
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A259" s="3">
-        <v>611.77801499999998</v>
-      </c>
+    <row r="259" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F259" s="7">
         <v>43175</v>
       </c>
@@ -5098,10 +4991,7 @@
       <c r="K259" s="5"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A260" s="3">
-        <v>601.67797900000005</v>
-      </c>
+    <row r="260" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F260" s="7">
         <v>43176</v>
       </c>
@@ -5114,10 +5004,7 @@
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A261" s="3">
-        <v>551.64001499999995</v>
-      </c>
+    <row r="261" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F261" s="7">
         <v>43177</v>
       </c>
@@ -5130,10 +5017,7 @@
       <c r="K261" s="5"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A262" s="3">
-        <v>546.62597700000003</v>
-      </c>
+    <row r="262" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F262" s="7">
         <v>43178</v>
       </c>
@@ -5146,10 +5030,7 @@
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A263" s="3">
-        <v>556.72198500000002</v>
-      </c>
+    <row r="263" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F263" s="7">
         <v>43179</v>
       </c>
@@ -5162,10 +5043,7 @@
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A264" s="3">
-        <v>559.09997599999997</v>
-      </c>
+    <row r="264" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F264" s="7">
         <v>43180</v>
       </c>
@@ -5178,10 +5056,7 @@
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A265" s="3">
-        <v>562.103027</v>
-      </c>
+    <row r="265" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F265" s="7">
         <v>43181</v>
       </c>
@@ -5194,10 +5069,7 @@
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A266" s="3">
-        <v>539.864014</v>
-      </c>
+    <row r="266" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F266" s="7">
         <v>43182</v>
       </c>
@@ -5210,10 +5082,7 @@
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A267" s="3">
-        <v>542.57202099999995</v>
-      </c>
+    <row r="267" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F267" s="7">
         <v>43183</v>
       </c>
@@ -5226,10 +5095,7 @@
       <c r="K267" s="5"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A268" s="3">
-        <v>522.70300299999997</v>
-      </c>
+    <row r="268" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F268" s="7">
         <v>43184</v>
       </c>
@@ -5242,10 +5108,7 @@
       <c r="K268" s="5"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A269" s="3">
-        <v>524.28698699999995</v>
-      </c>
+    <row r="269" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F269" s="7">
         <v>43185</v>
       </c>
@@ -5258,10 +5121,7 @@
       <c r="K269" s="5"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A270" s="3">
-        <v>489.58999599999999</v>
-      </c>
+    <row r="270" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F270" s="7">
         <v>43186</v>
       </c>
@@ -5274,10 +5134,7 @@
       <c r="K270" s="5"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A271" s="3">
-        <v>450.29098499999998</v>
-      </c>
+    <row r="271" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F271" s="7">
         <v>43187</v>
       </c>
@@ -5290,10 +5147,7 @@
       <c r="K271" s="5"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A272" s="3">
-        <v>448.07501200000002</v>
-      </c>
+    <row r="272" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F272" s="7">
         <v>43188</v>
       </c>
@@ -5306,10 +5160,7 @@
       <c r="K272" s="5"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A273" s="3">
-        <v>385.90499899999998</v>
-      </c>
+    <row r="273" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F273" s="7">
         <v>43189</v>
       </c>
@@ -5322,10 +5173,7 @@
       <c r="K273" s="5"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A274" s="3">
-        <v>395.00399800000002</v>
-      </c>
+    <row r="274" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F274" s="7">
         <v>43190</v>
       </c>
@@ -5338,10 +5186,7 @@
       <c r="K274" s="5"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A275" s="3">
-        <v>397.25399800000002</v>
-      </c>
+    <row r="275" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F275" s="7">
         <v>43191</v>
       </c>
@@ -5354,10 +5199,7 @@
       <c r="K275" s="5"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A276" s="3">
-        <v>379.699005</v>
-      </c>
+    <row r="276" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F276" s="7">
         <v>43192</v>
       </c>
@@ -5370,10 +5212,7 @@
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A277" s="3">
-        <v>387.31201199999998</v>
-      </c>
+    <row r="277" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F277" s="7">
         <v>43193</v>
       </c>
@@ -5386,10 +5225,7 @@
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A278" s="3">
-        <v>416.48498499999999</v>
-      </c>
+    <row r="278" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F278" s="7">
         <v>43194</v>
       </c>
@@ -5402,10 +5238,7 @@
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
     </row>
-    <row r="279" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A279" s="3">
-        <v>379.94699100000003</v>
-      </c>
+    <row r="279" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F279" s="7">
         <v>43195</v>
       </c>
@@ -5418,10 +5251,7 @@
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
     </row>
-    <row r="280" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A280" s="3">
-        <v>382.73098800000002</v>
-      </c>
+    <row r="280" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F280" s="7">
         <v>43196</v>
       </c>
@@ -5434,10 +5264,7 @@
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
     </row>
-    <row r="281" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A281" s="3">
-        <v>370.38000499999998</v>
-      </c>
+    <row r="281" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F281" s="7">
         <v>43197</v>
       </c>
@@ -5450,10 +5277,7 @@
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
     </row>
-    <row r="282" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A282" s="3">
-        <v>385.74301100000002</v>
-      </c>
+    <row r="282" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F282" s="7">
         <v>43198</v>
       </c>
@@ -5466,10 +5290,7 @@
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
     </row>
-    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A283" s="3">
-        <v>400.85699499999998</v>
-      </c>
+    <row r="283" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F283" s="7">
         <v>43199</v>
       </c>
@@ -5482,10 +5303,7 @@
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
     </row>
-    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A284" s="3">
-        <v>399.41101099999997</v>
-      </c>
+    <row r="284" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F284" s="7">
         <v>43200</v>
       </c>
@@ -5498,10 +5316,7 @@
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
     </row>
-    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A285" s="3">
-        <v>415.02398699999998</v>
-      </c>
+    <row r="285" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F285" s="7">
         <v>43201</v>
       </c>
@@ -5514,10 +5329,7 @@
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
     </row>
-    <row r="286" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A286" s="3">
-        <v>430.16101099999997</v>
-      </c>
+    <row r="286" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F286" s="7">
         <v>43202</v>
       </c>
@@ -5530,10 +5342,7 @@
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
     </row>
-    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
-        <v>493.16000400000001</v>
-      </c>
+    <row r="287" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F287" s="7">
         <v>43203</v>
       </c>
@@ -5546,10 +5355,7 @@
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
     </row>
-    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A288" s="3">
-        <v>492.57998700000002</v>
-      </c>
+    <row r="288" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F288" s="7">
         <v>43204</v>
       </c>
@@ -5562,10 +5368,7 @@
       <c r="K288" s="5"/>
       <c r="L288" s="5"/>
     </row>
-    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A289" s="3">
-        <v>502.88000499999998</v>
-      </c>
+    <row r="289" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F289" s="7">
         <v>43205</v>
       </c>
@@ -5578,10 +5381,7 @@
       <c r="K289" s="5"/>
       <c r="L289" s="5"/>
     </row>
-    <row r="290" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A290" s="3">
-        <v>532.07397500000002</v>
-      </c>
+    <row r="290" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F290" s="7">
         <v>43206</v>
       </c>
@@ -5594,10 +5394,7 @@
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
     </row>
-    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A291" s="3">
-        <v>511.14498900000001</v>
-      </c>
+    <row r="291" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F291" s="7">
         <v>43207</v>
       </c>
@@ -5610,10 +5407,7 @@
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
     </row>
-    <row r="292" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A292" s="3">
-        <v>503.30898999999999</v>
-      </c>
+    <row r="292" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F292" s="7">
         <v>43208</v>
       </c>
@@ -5626,10 +5420,7 @@
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
     </row>
-    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A293" s="3">
-        <v>524.03802499999995</v>
-      </c>
+    <row r="293" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F293" s="7">
         <v>43209</v>
       </c>
@@ -5642,10 +5433,7 @@
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
     </row>
-    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A294" s="3">
-        <v>567.989014</v>
-      </c>
+    <row r="294" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F294" s="7">
         <v>43210</v>
       </c>
@@ -5658,10 +5446,7 @@
       <c r="K294" s="5"/>
       <c r="L294" s="5"/>
     </row>
-    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A295" s="3">
-        <v>616.00402799999995</v>
-      </c>
+    <row r="295" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F295" s="7">
         <v>43211</v>
       </c>
@@ -5674,10 +5459,7 @@
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
     </row>
-    <row r="296" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A296" s="3">
-        <v>606.11901899999998</v>
-      </c>
+    <row r="296" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F296" s="7">
         <v>43212</v>
       </c>
@@ -5690,10 +5472,7 @@
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
     </row>
-    <row r="297" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A297" s="3">
-        <v>621.19897500000002</v>
-      </c>
+    <row r="297" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F297" s="7">
         <v>43213</v>
       </c>
@@ -5706,10 +5485,7 @@
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
     </row>
-    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A298" s="3">
-        <v>643.39801</v>
-      </c>
+    <row r="298" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F298" s="7">
         <v>43214</v>
       </c>
@@ -5722,10 +5498,7 @@
       <c r="K298" s="5"/>
       <c r="L298" s="5"/>
     </row>
-    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A299" s="3">
-        <v>707.06201199999998</v>
-      </c>
+    <row r="299" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F299" s="7">
         <v>43215</v>
       </c>
@@ -5738,10 +5511,7 @@
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
     </row>
-    <row r="300" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A300" s="3">
-        <v>618.078979</v>
-      </c>
+    <row r="300" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F300" s="7">
         <v>43216</v>
       </c>
@@ -5754,10 +5524,7 @@
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
     </row>
-    <row r="301" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A301" s="3">
-        <v>662.10900900000001</v>
-      </c>
+    <row r="301" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F301" s="7">
         <v>43217</v>
       </c>
@@ -5770,10 +5537,7 @@
       <c r="K301" s="5"/>
       <c r="L301" s="5"/>
     </row>
-    <row r="302" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A302" s="3">
-        <v>644.64599599999997</v>
-      </c>
+    <row r="302" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F302" s="7">
         <v>43218</v>
       </c>
@@ -5786,10 +5550,7 @@
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
     </row>
-    <row r="303" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A303" s="3">
-        <v>683.91198699999995</v>
-      </c>
+    <row r="303" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F303" s="7">
         <v>43219</v>
       </c>
@@ -5802,10 +5563,7 @@
       <c r="K303" s="5"/>
       <c r="L303" s="5"/>
     </row>
-    <row r="304" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A304" s="3">
-        <v>689.760986</v>
-      </c>
+    <row r="304" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F304" s="7">
         <v>43220</v>
       </c>
@@ -5818,10 +5576,7 @@
       <c r="K304" s="5"/>
       <c r="L304" s="5"/>
     </row>
-    <row r="305" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A305" s="3">
-        <v>670.46301300000005</v>
-      </c>
+    <row r="305" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F305" s="7">
         <v>43221</v>
       </c>
@@ -5834,10 +5589,7 @@
       <c r="K305" s="5"/>
       <c r="L305" s="5"/>
     </row>
-    <row r="306" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A306" s="3">
-        <v>674.07501200000002</v>
-      </c>
+    <row r="306" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F306" s="7">
         <v>43222</v>
       </c>
@@ -5850,10 +5602,7 @@
       <c r="K306" s="5"/>
       <c r="L306" s="5"/>
     </row>
-    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A307" s="3">
-        <v>686.591003</v>
-      </c>
+    <row r="307" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F307" s="7">
         <v>43223</v>
       </c>
@@ -5866,10 +5615,7 @@
       <c r="K307" s="5"/>
       <c r="L307" s="5"/>
     </row>
-    <row r="308" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A308" s="3">
-        <v>776.77502400000003</v>
-      </c>
+    <row r="308" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F308" s="7">
         <v>43224</v>
       </c>
@@ -5882,10 +5628,7 @@
       <c r="K308" s="5"/>
       <c r="L308" s="5"/>
     </row>
-    <row r="309" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A309" s="3">
-        <v>784.58300799999995</v>
-      </c>
+    <row r="309" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F309" s="7">
         <v>43225</v>
       </c>
@@ -5898,10 +5641,7 @@
       <c r="K309" s="5"/>
       <c r="L309" s="5"/>
     </row>
-    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A310" s="3">
-        <v>816.08801300000005</v>
-      </c>
+    <row r="310" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F310" s="7">
         <v>43226</v>
       </c>
@@ -5914,10 +5654,7 @@
       <c r="K310" s="5"/>
       <c r="L310" s="5"/>
     </row>
-    <row r="311" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A311" s="3">
-        <v>793.33898899999997</v>
-      </c>
+    <row r="311" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F311" s="7">
         <v>43227</v>
       </c>
@@ -5930,10 +5667,7 @@
       <c r="K311" s="5"/>
       <c r="L311" s="5"/>
     </row>
-    <row r="312" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A312" s="3">
-        <v>755.00897199999997</v>
-      </c>
+    <row r="312" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F312" s="7">
         <v>43228</v>
       </c>
@@ -5946,10 +5680,7 @@
       <c r="K312" s="5"/>
       <c r="L312" s="5"/>
     </row>
-    <row r="313" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A313" s="3">
-        <v>752.90197799999999</v>
-      </c>
+    <row r="313" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F313" s="7">
         <v>43229</v>
       </c>
@@ -5962,10 +5693,7 @@
       <c r="K313" s="5"/>
       <c r="L313" s="5"/>
     </row>
-    <row r="314" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A314" s="3">
-        <v>752.578979</v>
-      </c>
+    <row r="314" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F314" s="7">
         <v>43230</v>
       </c>
@@ -5978,10 +5706,7 @@
       <c r="K314" s="5"/>
       <c r="L314" s="5"/>
     </row>
-    <row r="315" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A315" s="3">
-        <v>727.01300000000003</v>
-      </c>
+    <row r="315" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F315" s="7">
         <v>43231</v>
       </c>
@@ -5994,10 +5719,7 @@
       <c r="K315" s="5"/>
       <c r="L315" s="5"/>
     </row>
-    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A316" s="3">
-        <v>679.87701400000003</v>
-      </c>
+    <row r="316" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F316" s="7">
         <v>43232</v>
       </c>
@@ -6010,10 +5732,7 @@
       <c r="K316" s="5"/>
       <c r="L316" s="5"/>
     </row>
-    <row r="317" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A317" s="3">
-        <v>687.17498799999998</v>
-      </c>
+    <row r="317" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F317" s="7">
         <v>43233</v>
       </c>
@@ -6026,10 +5745,7 @@
       <c r="K317" s="5"/>
       <c r="L317" s="5"/>
     </row>
-    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A318" s="3">
-        <v>732.73297100000002</v>
-      </c>
+    <row r="318" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F318" s="7">
         <v>43234</v>
       </c>
@@ -6042,10 +5758,7 @@
       <c r="K318" s="5"/>
       <c r="L318" s="5"/>
     </row>
-    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A319" s="3">
-        <v>731.14300500000002</v>
-      </c>
+    <row r="319" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F319" s="7">
         <v>43235</v>
       </c>
@@ -6058,10 +5771,7 @@
       <c r="K319" s="5"/>
       <c r="L319" s="5"/>
     </row>
-    <row r="320" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A320" s="3">
-        <v>708.08697500000005</v>
-      </c>
+    <row r="320" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F320" s="7">
         <v>43236</v>
       </c>
@@ -6074,10 +5784,7 @@
       <c r="K320" s="5"/>
       <c r="L320" s="5"/>
     </row>
-    <row r="321" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A321" s="3">
-        <v>708.71801800000003</v>
-      </c>
+    <row r="321" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F321" s="7">
         <v>43237</v>
       </c>
@@ -6090,10 +5797,7 @@
       <c r="K321" s="5"/>
       <c r="L321" s="5"/>
     </row>
-    <row r="322" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A322" s="3">
-        <v>672.10199</v>
-      </c>
+    <row r="322" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F322" s="7">
         <v>43238</v>
       </c>
@@ -6106,10 +5810,7 @@
       <c r="K322" s="5"/>
       <c r="L322" s="5"/>
     </row>
-    <row r="323" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A323" s="3">
-        <v>695.07202099999995</v>
-      </c>
+    <row r="323" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F323" s="7">
         <v>43239</v>
       </c>
@@ -6122,10 +5823,7 @@
       <c r="K323" s="5"/>
       <c r="L323" s="5"/>
     </row>
-    <row r="324" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A324" s="3">
-        <v>697.92297399999995</v>
-      </c>
+    <row r="324" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F324" s="7">
         <v>43240</v>
       </c>
@@ -6138,10 +5836,7 @@
       <c r="K324" s="5"/>
       <c r="L324" s="5"/>
     </row>
-    <row r="325" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A325" s="3">
-        <v>717.192993</v>
-      </c>
+    <row r="325" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F325" s="7">
         <v>43241</v>
       </c>
@@ -6154,10 +5849,7 @@
       <c r="K325" s="5"/>
       <c r="L325" s="5"/>
     </row>
-    <row r="326" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A326" s="3">
-        <v>700.17797900000005</v>
-      </c>
+    <row r="326" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F326" s="7">
         <v>43242</v>
       </c>
@@ -6170,10 +5862,7 @@
       <c r="K326" s="5"/>
       <c r="L326" s="5"/>
     </row>
-    <row r="327" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A327" s="3">
-        <v>646.669983</v>
-      </c>
+    <row r="327" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F327" s="7">
         <v>43243</v>
       </c>
@@ -6186,10 +5875,7 @@
       <c r="K327" s="5"/>
       <c r="L327" s="5"/>
     </row>
-    <row r="328" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A328" s="3">
-        <v>584.53601100000003</v>
-      </c>
+    <row r="328" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F328" s="7">
         <v>43244</v>
       </c>
@@ -6202,10 +5888,7 @@
       <c r="K328" s="5"/>
       <c r="L328" s="5"/>
     </row>
-    <row r="329" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A329" s="3">
-        <v>602.14001499999995</v>
-      </c>
+    <row r="329" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F329" s="7">
         <v>43245</v>
       </c>
@@ -6218,10 +5901,7 @@
       <c r="K329" s="5"/>
       <c r="L329" s="5"/>
     </row>
-    <row r="330" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A330" s="3">
-        <v>587.42602499999998</v>
-      </c>
+    <row r="330" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F330" s="7">
         <v>43246</v>
       </c>
@@ -6234,10 +5914,7 @@
       <c r="K330" s="5"/>
       <c r="L330" s="5"/>
     </row>
-    <row r="331" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A331" s="3">
-        <v>588.52002000000005</v>
-      </c>
+    <row r="331" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F331" s="7">
         <v>43247</v>
       </c>
@@ -6250,10 +5927,7 @@
       <c r="K331" s="5"/>
       <c r="L331" s="5"/>
     </row>
-    <row r="332" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A332" s="3">
-        <v>573.044983</v>
-      </c>
+    <row r="332" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F332" s="7">
         <v>43248</v>
       </c>
@@ -6266,10 +5940,7 @@
       <c r="K332" s="5"/>
       <c r="L332" s="5"/>
     </row>
-    <row r="333" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A333" s="3">
-        <v>516.14801</v>
-      </c>
+    <row r="333" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F333" s="7">
         <v>43249</v>
       </c>
@@ -6282,10 +5953,7 @@
       <c r="K333" s="5"/>
       <c r="L333" s="5"/>
     </row>
-    <row r="334" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A334" s="3">
-        <v>566.830017</v>
-      </c>
+    <row r="334" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F334" s="7">
         <v>43250</v>
       </c>
@@ -6298,10 +5966,7 @@
       <c r="K334" s="5"/>
       <c r="L334" s="5"/>
     </row>
-    <row r="335" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A335" s="3">
-        <v>558.49700900000005</v>
-      </c>
+    <row r="335" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F335" s="7">
         <v>43251</v>
       </c>
@@ -6314,10 +5979,7 @@
       <c r="K335" s="5"/>
       <c r="L335" s="5"/>
     </row>
-    <row r="336" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A336" s="3">
-        <v>578.67199700000003</v>
-      </c>
+    <row r="336" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F336" s="7">
         <v>43252</v>
       </c>
@@ -6330,10 +5992,7 @@
       <c r="K336" s="5"/>
       <c r="L336" s="5"/>
     </row>
-    <row r="337" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A337" s="3">
-        <v>580.42901600000005</v>
-      </c>
+    <row r="337" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F337" s="7">
         <v>43253</v>
       </c>
@@ -6346,10 +6005,7 @@
       <c r="K337" s="5"/>
       <c r="L337" s="5"/>
     </row>
-    <row r="338" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A338" s="3">
-        <v>591.25897199999997</v>
-      </c>
+    <row r="338" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F338" s="7">
         <v>43254</v>
       </c>
@@ -6362,10 +6018,7 @@
       <c r="K338" s="5"/>
       <c r="L338" s="5"/>
     </row>
-    <row r="339" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A339" s="3">
-        <v>619.43701199999998</v>
-      </c>
+    <row r="339" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F339" s="7">
         <v>43255</v>
       </c>
@@ -6378,10 +6031,7 @@
       <c r="K339" s="5"/>
       <c r="L339" s="5"/>
     </row>
-    <row r="340" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A340" s="3">
-        <v>593.40600600000005</v>
-      </c>
+    <row r="340" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F340" s="7">
         <v>43256</v>
       </c>
@@ -6394,10 +6044,7 @@
       <c r="K340" s="5"/>
       <c r="L340" s="5"/>
     </row>
-    <row r="341" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A341" s="3">
-        <v>610.262024</v>
-      </c>
+    <row r="341" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F341" s="7">
         <v>43257</v>
       </c>
@@ -6410,10 +6057,7 @@
       <c r="K341" s="5"/>
       <c r="L341" s="5"/>
     </row>
-    <row r="342" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A342" s="3">
-        <v>607.68701199999998</v>
-      </c>
+    <row r="342" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F342" s="7">
         <v>43258</v>
       </c>
@@ -6426,10 +6070,7 @@
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
     </row>
-    <row r="343" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A343" s="3">
-        <v>605.442993</v>
-      </c>
+    <row r="343" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F343" s="7">
         <v>43259</v>
       </c>
@@ -6442,10 +6083,7 @@
       <c r="K343" s="5"/>
       <c r="L343" s="5"/>
     </row>
-    <row r="344" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A344" s="3">
-        <v>600.90502900000001</v>
-      </c>
+    <row r="344" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F344" s="7">
         <v>43260</v>
       </c>
@@ -6458,10 +6096,7 @@
       <c r="K344" s="5"/>
       <c r="L344" s="5"/>
     </row>
-    <row r="345" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A345" s="3">
-        <v>594.34497099999999</v>
-      </c>
+    <row r="345" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F345" s="7">
         <v>43261</v>
       </c>
@@ -6474,10 +6109,7 @@
       <c r="K345" s="5"/>
       <c r="L345" s="5"/>
     </row>
-    <row r="346" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A346" s="3">
-        <v>524.85699499999998</v>
-      </c>
+    <row r="346" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F346" s="7">
         <v>43262</v>
       </c>
@@ -6490,10 +6122,7 @@
       <c r="K346" s="5"/>
       <c r="L346" s="5"/>
     </row>
-    <row r="347" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A347" s="3">
-        <v>532.71002199999998</v>
-      </c>
+    <row r="347" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F347" s="7">
         <v>43263</v>
       </c>
@@ -6506,10 +6135,7 @@
       <c r="K347" s="5"/>
       <c r="L347" s="5"/>
     </row>
-    <row r="348" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A348" s="3">
-        <v>498.01800500000002</v>
-      </c>
+    <row r="348" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F348" s="7">
         <v>43264</v>
       </c>
@@ -6522,10 +6148,7 @@
       <c r="K348" s="5"/>
       <c r="L348" s="5"/>
     </row>
-    <row r="349" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A349" s="3">
-        <v>478.381012</v>
-      </c>
+    <row r="349" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F349" s="7">
         <v>43265</v>
       </c>
@@ -6538,10 +6161,7 @@
       <c r="K349" s="5"/>
       <c r="L349" s="5"/>
     </row>
-    <row r="350" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A350" s="3">
-        <v>520.47997999999995</v>
-      </c>
+    <row r="350" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F350" s="7">
         <v>43266</v>
       </c>
@@ -6554,10 +6174,7 @@
       <c r="K350" s="5"/>
       <c r="L350" s="5"/>
     </row>
-    <row r="351" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A351" s="3">
-        <v>490.41400099999998</v>
-      </c>
+    <row r="351" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F351" s="7">
         <v>43267</v>
       </c>
@@ -6570,10 +6187,7 @@
       <c r="K351" s="5"/>
       <c r="L351" s="5"/>
     </row>
-    <row r="352" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A352" s="3">
-        <v>499.459991</v>
-      </c>
+    <row r="352" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F352" s="7">
         <v>43268</v>
       </c>
@@ -6586,10 +6200,7 @@
       <c r="K352" s="5"/>
       <c r="L352" s="5"/>
     </row>
-    <row r="353" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A353" s="3">
-        <v>499.38299599999999</v>
-      </c>
+    <row r="353" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F353" s="7">
         <v>43269</v>
       </c>
@@ -6602,10 +6213,7 @@
       <c r="K353" s="5"/>
       <c r="L353" s="5"/>
     </row>
-    <row r="354" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A354" s="3">
-        <v>519.02301</v>
-      </c>
+    <row r="354" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F354" s="7">
         <v>43270</v>
       </c>
@@ -6618,10 +6226,7 @@
       <c r="K354" s="5"/>
       <c r="L354" s="5"/>
     </row>
-    <row r="355" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A355" s="3">
-        <v>538.50598100000002</v>
-      </c>
+    <row r="355" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F355" s="7">
         <v>43271</v>
       </c>
@@ -6634,10 +6239,7 @@
       <c r="K355" s="5"/>
       <c r="L355" s="5"/>
     </row>
-    <row r="356" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A356" s="3">
-        <v>536.44702099999995</v>
-      </c>
+    <row r="356" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F356" s="7">
         <v>43272</v>
       </c>
@@ -6650,10 +6252,7 @@
       <c r="K356" s="5"/>
       <c r="L356" s="5"/>
     </row>
-    <row r="357" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A357" s="3">
-        <v>527.19397000000004</v>
-      </c>
+    <row r="357" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F357" s="7">
         <v>43273</v>
       </c>
@@ -6666,10 +6265,7 @@
       <c r="K357" s="5"/>
       <c r="L357" s="5"/>
     </row>
-    <row r="358" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A358" s="3">
-        <v>466.27398699999998</v>
-      </c>
+    <row r="358" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F358" s="7">
         <v>43274</v>
       </c>
@@ -6682,10 +6278,7 @@
       <c r="K358" s="5"/>
       <c r="L358" s="5"/>
     </row>
-    <row r="359" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A359" s="3">
-        <v>474.76800500000002</v>
-      </c>
+    <row r="359" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F359" s="7">
         <v>43275</v>
       </c>
@@ -6698,10 +6291,7 @@
       <c r="K359" s="5"/>
       <c r="L359" s="5"/>
     </row>
-    <row r="360" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A360" s="3">
-        <v>455.93600500000002</v>
-      </c>
+    <row r="360" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F360" s="7">
         <v>43276</v>
       </c>
@@ -6714,10 +6304,7 @@
       <c r="K360" s="5"/>
       <c r="L360" s="5"/>
     </row>
-    <row r="361" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A361" s="3">
-        <v>460.733002</v>
-      </c>
+    <row r="361" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F361" s="7">
         <v>43277</v>
       </c>
@@ -6730,10 +6317,7 @@
       <c r="K361" s="5"/>
       <c r="L361" s="5"/>
     </row>
-    <row r="362" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A362" s="3">
-        <v>432.243988</v>
-      </c>
+    <row r="362" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F362" s="7">
         <v>43278</v>
       </c>
@@ -6746,10 +6330,7 @@
       <c r="K362" s="5"/>
       <c r="L362" s="5"/>
     </row>
-    <row r="363" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A363" s="3">
-        <v>442.290009</v>
-      </c>
+    <row r="363" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F363" s="7">
         <v>43279</v>
       </c>
@@ -6762,10 +6343,7 @@
       <c r="K363" s="5"/>
       <c r="L363" s="5"/>
     </row>
-    <row r="364" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A364" s="3">
-        <v>422.58700599999997</v>
-      </c>
+    <row r="364" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F364" s="7">
         <v>43280</v>
       </c>
@@ -6778,10 +6356,7 @@
       <c r="K364" s="5"/>
       <c r="L364" s="5"/>
     </row>
-    <row r="365" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A365" s="3">
-        <v>436.20901500000002</v>
-      </c>
+    <row r="365" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F365" s="7">
         <v>43281</v>
       </c>
@@ -6794,10 +6369,7 @@
       <c r="K365" s="5"/>
       <c r="L365" s="5"/>
     </row>
-    <row r="366" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A366" s="3">
-        <v>455.24200400000001</v>
-      </c>
+    <row r="366" spans="6:12" ht="19" x14ac:dyDescent="0.2">
       <c r="F366" s="7">
         <v>43282</v>
       </c>
